--- a/examples/99_tower_gbf/15mw/60m/outputs_mono/monotow_iea15_output.xlsx
+++ b/examples/99_tower_gbf/15mw/60m/outputs_mono/monotow_iea15_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E762"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[2.72649418]</t>
+          <t>[2.73378262]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -3056,8 +3056,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
-  9.45357936]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -3469,7 +3468,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[8.]</t>
+          <t>[9.4135311]</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -3492,7 +3491,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[9.45357936]</t>
+          <t>[9.4135311]</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -3717,7 +3716,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[[0.06664067 0.02837054 0.025      0.025      0.025     ]]</t>
+          <t>[[0.03351377 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
@@ -3740,7 +3739,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[9.4135311 9.4135311 9.4135311 6.        6.       ]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
@@ -4628,10 +4627,10 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         10748.86252523
- 11540.86315895 14043.88206594 18656.97161044 26162.55366081
- 37853.78313771 55698.90622113 65244.91194673 76605.11109174
- 90201.63550759     0.             0.             0.
+          <t>[    0.             0.             0.          9439.17691636
+ 10134.78897862 12334.88025603 16391.54285661 22997.23008986
+ 33316.62769868 49105.52769021 57557.58320896 67616.61268137
+ 79652.79025989     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4882,10 +4881,9 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
-  9.45357936]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -5026,10 +5024,10 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         10748.86252523
- 11540.86315895 14043.88206594 18656.97161044 26162.55366081
- 37853.78313771 55698.90622113 65244.91194673 76605.11109174
- 90201.63550759     0.             0.             0.
+          <t>[    0.             0.             0.          9439.17691636
+ 10134.78897862 12334.88025603 16391.54285661 22997.23008986
+ 33316.62769868 49105.52769021 57557.58320896 67616.61268137
+ 79652.79025989     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5172,10 +5170,10 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -10748.86252523
- -11540.86315895 -14043.88206594 -18656.97161044 -26162.55366081
- -37853.78313771 -55698.90622113 -65244.91194673 -76605.11109174
- -90201.63550759      0.              0.              0.
+          <t>[     0.              0.              0.          -9439.17691636
+ -10134.78897862 -12334.88025603 -16391.54285661 -22997.23008986
+ -33316.62769868 -49105.52769021 -57557.58320896 -67616.61268137
+ -79652.79025989      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5249,26 +5247,26 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[[3.15652084e+10 1.87316120e+13 3.15652084e+10 1.87316120e+13
-  1.98085388e+10 9.46518238e+10]
- [2.84527873e+10 1.32741969e+13 2.84527873e+10 1.32741969e+13
-  1.81285388e+10 9.46518238e+10]
- [2.53403663e+10 9.01144854e+12 2.53403663e+10 9.01144854e+12
-  1.64485388e+10 9.46518238e+10]
- [2.22279452e+10 5.79403349e+12 2.22279452e+10 5.79403349e+12
-  1.47685388e+10 9.46518238e+10]
- [1.91155242e+10 3.47261844e+12 1.91155242e+10 3.47261844e+12
-  1.30885388e+10 9.46518238e+10]
- [1.60031031e+10 1.89787006e+12 1.60031031e+10 1.89787006e+12
-  1.14085388e+10 9.46518238e+10]
- [1.28906821e+10 9.20455006e+11 1.28906821e+10 9.20455006e+11
-  9.72853883e+09 9.46518238e+10]
- [9.77826101e+09 3.91039955e+11 9.77826101e+09 3.91039955e+11
-  8.04853883e+09 9.46518238e+10]
- [6.66583996e+09 1.60291571e+11 6.66583996e+09 1.60291571e+11
-  6.36853883e+09 9.46518238e+10]
- [3.55341891e+09 7.88765198e+10 3.55341891e+09 7.88765198e+10
-  4.68853883e+09 9.46518238e+10]]</t>
+          <t>[[3.13412068e+10 1.86554978e+13 3.13412068e+10 1.86554978e+13
+  1.95129812e+10 7.78564257e+10]
+ [2.82287857e+10 1.32049847e+13 2.82287857e+10 1.32049847e+13
+  1.78329812e+10 7.78564257e+10]
+ [2.51163647e+10 8.94913835e+12 2.51163647e+10 8.94913835e+12
+  1.61529812e+10 7.78564257e+10]
+ [2.20039436e+10 5.73862530e+12 2.20039436e+10 5.73862530e+12
+  1.44729812e+10 7.78564257e+10]
+ [1.88915226e+10 3.42411226e+12 1.88915226e+10 3.42411226e+12
+  1.27929812e+10 7.78564257e+10]
+ [1.57791015e+10 1.85626588e+12 1.57791015e+10 1.85626588e+12
+  1.11129812e+10 7.78564257e+10]
+ [1.26666805e+10 8.85752829e+11 1.26666805e+10 8.85752829e+11
+  9.43298118e+09 7.78564257e+10]
+ [9.55425942e+09 3.63239782e+11 9.55425942e+09 3.63239782e+11
+  7.75298118e+09 7.78564257e+10]
+ [6.44183837e+09 1.39393402e+11 6.44183837e+09 1.39393402e+11
+  6.07298118e+09 7.78564257e+10]
+ [3.32941731e+09 6.48803547e+10 3.32941731e+09 6.48803547e+10
+  4.39298118e+09 7.78564257e+10]]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
@@ -5332,9 +5330,9 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
- 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
- 2.33203354 2.30088055 2.26972755 2.24646019 2.23107846 2.21569673]</t>
+          <t>[2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332]</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -5357,9 +5355,9 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394 ]</t>
+          <t>[1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986]</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -5382,9 +5380,9 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394 ]</t>
+          <t>[1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986]</t>
         </is>
       </c>
       <c r="E212" t="inlineStr"/>
@@ -5407,9 +5405,9 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546]</t>
+          <t>[25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796]</t>
         </is>
       </c>
       <c r="E213" t="inlineStr"/>
@@ -5432,9 +5430,9 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546]</t>
+          <t>[25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796]</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -5457,9 +5455,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>[58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
- 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
- 57.26676746 55.00233162 52.79839107 51.1912997  50.14698502 49.11697092]</t>
+          <t>[51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592]</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
@@ -5555,8 +5553,8 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
- 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075 0.075
+ 0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
@@ -5703,8 +5701,8 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>[1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.84427821 0.84427821 0.84427821 0.63152787 0.63152787 0.63152787
+ 0.59327921 0.51678188 0.44028456 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -5727,8 +5725,8 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -5751,8 +5749,8 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -5775,8 +5773,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[9.29890616 9.29890616 9.29890616 6.96565981 6.96565981 6.96565981
+ 5.77513767 3.81687119 2.3604083  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5799,8 +5797,8 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[9.29890616 9.29890616 9.29890616 6.96565981 6.96565981 6.96565981
+ 5.77513767 3.81687119 2.3604083  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5823,8 +5821,8 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[18.59781233 18.59781233 18.59781233 13.93131961 13.93131961 13.93131961
+ 11.55027535  7.63374239  4.7208166   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5918,9 +5916,8 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 8.2756874 7.1378437 6.        6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -5943,8 +5940,8 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>[0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.02675689 0.02675689 0.02675689 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -6049,9 +6046,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[[  3787067.18771657]
- [    22429.54651138]
- [-17982840.48547237]]</t>
+          <t>[[  3787067.18771706]
+ [    22429.54651141]
+ [-16046505.18547176]]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6074,8 +6071,8 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[[-4.77467500e+06]
- [ 5.50129008e+08]
+          <t>[[-4.74594802e+06]
+ [ 5.47463285e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -6099,8 +6096,8 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[1117127.0331869 1117127.0331869 2234254.0663738       0.
-       0.              0.       ]</t>
+          <t>[1107682.09672032 1107682.09672032 2215364.19344064       0.
+       0.               0.        ]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6192,7 +6189,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>[1873207.14105459]</t>
+          <t>[1675163.99040833]</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -6215,7 +6212,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>[-3.72763558e+00 -5.04267161e-02  1.14733657e+02]</t>
+          <t>[-4.16832837e+00 -5.63883209e-02  1.22845696e+02]</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -6238,7 +6235,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>[3.06417113e+10 3.05359749e+10 2.66686538e+08 8.52611923e+02
+          <t>[2.98692454e+10 2.97635090e+10 2.67375759e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -6347,16 +6344,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-10748.86252523]
- [-11540.86315895]
- [-14043.88206594]
- [-18656.97161044]
- [-26162.55366081]
- [-37853.78313771]
- [-55698.90622113]
- [-65244.91194673]
- [-76605.11109174]
- [-90201.63550759]
+ [ -9439.17691636]
+ [-10134.78897862]
+ [-12334.88025603]
+ [-16391.54285661]
+ [-22997.23008986]
+ [-33316.62769868]
+ [-49105.52769021]
+ [-57557.58320896]
+ [-67616.61268137]
+ [-79652.79025989]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -6455,15 +6452,15 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-226.42020701]
+ [-264.8186295 ]
+ [-291.08265611]
+ [-311.47390409]
+ [-334.77929076]
+ [-353.80818574]
+ [-370.01636313]
+ [-331.38951652]
+ [-287.59677781]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -6589,24 +6586,24 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[[-39840081.21271835]
- [-37146573.08325302]
- [-34373254.64912524]
- [-32784916.12179636]
- [-31182985.63890117]
- [-29551701.2209474 ]
- [-27870427.28150927]
- [-26109966.49050847]
- [-24227668.24931235]
- [-23429553.59946726]
- [-22596943.71496534]
- [-21723155.21933872]
- [-20979736.53725549]
- [-20393093.54655381]
- [-19814393.42755813]
- [-19528009.55935186]
- [-19243586.5740304 ]
- [-18961124.47159461]]</t>
+          <t>[[-37787385.57375415]
+ [-35086129.10309526]
+ [-32314786.7432092 ]
+ [-30733346.0989738 ]
+ [-29139960.67934779]
+ [-27520766.1498585 ]
+ [-25857589.42017383]
+ [-24124596.71099711]
+ [-22283907.27721087]
+ [-21507633.93358327]
+ [-20700817.31149055]
+ [-19857543.57898744]
+ [-19125837.26323156]
+ [-18525558.04752942]
+ [-17925278.83182757]
+ [-17625139.22397685]
+ [-17324999.61612527]
+ [-17024860.00827434]]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6629,24 +6626,24 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>[[ -1774528.55311283]
- [-11057906.05809391]
- [-23897499.09326988]
- [  3788809.84627503]
- [  3789738.02729976]
- [  3790676.03706525]
- [  3791659.1437831 ]
- [  3792740.86600263]
- [  3794004.76225342]
- [  3790284.98962568]
- [  3790569.75784891]
- [  3790892.01623541]
- [  3790698.42383209]
- [  3789852.09985926]
- [  3789916.87306447]
- [  3788515.88459165]
- [  3788531.81532515]
- [  3788547.61049256]]</t>
+          <t>[[ -1737113.97378342]
+ [-11250731.10797293]
+ [-25235655.69767011]
+ [  3789015.62080959]
+ [  3790063.89119496]
+ [  3791116.80651009]
+ [  3792209.57780329]
+ [  3793395.96600758]
+ [  3794760.4268763 ]
+ [  3790614.75401345]
+ [  3790914.96974913]
+ [  3791252.50778832]
+ [  3791090.03753382]
+ [  3790291.31771699]
+ [  3790402.5269152 ]
+ [  3788775.74679588]
+ [  3788802.57575605]
+ [  3788829.08042462]]</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -6669,24 +6666,24 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>[[ -13804.80133336]
- [ -86274.03510406]
- [-188985.02182135]
- [  22443.05645191]
- [  22450.36748485]
- [  22457.8255266 ]
- [  22465.71394932]
- [  22474.46672254]
- [  22484.76670967]
- [  22455.25574455]
- [  22457.59330042]
- [  22460.24293255]
- [  22458.75642201]
- [  22452.00229817]
- [  22452.58264201]
- [  22441.28037998]
- [  22441.42553885]
- [  22441.57036424]]</t>
+          <t>[[ -13494.14735672]
+ [ -87634.09819615]
+ [-199145.62675679]
+ [  22444.6385442 ]
+ [  22452.88436473]
+ [  22461.24527232]
+ [  22470.00379692]
+ [  22479.595231  ]
+ [  22490.70867931]
+ [  22457.85626627]
+ [  22460.32012497]
+ [  22463.09495226]
+ [  22461.86617614]
+ [  22455.5091714 ]
+ [  22456.46774885]
+ [  22443.36167966]
+ [  22443.59545011]
+ [  22443.82726351]]</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -6709,24 +6706,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>[[  -97614.39261051]
- [-1269046.85311515]
- [-5551822.78507292]
- [-6321949.25969092]
- [-6127923.94090871]
- [-5931974.27214469]
- [-5734413.23842522]
- [-5535558.00971458]
- [-5335738.96908331]
- [-5255745.29380903]
- [-5175694.17963507]
- [-5095608.47245431]
- [-5015515.7156766 ]
- [-4935396.67022509]
- [-4855219.64321535]
- [-4815130.69657295]
- [-4775029.47163198]
- [-4734916.35628638]]</t>
+          <t>[[  -91892.41932494]
+ [-1215406.47713016]
+ [-5615122.71170983]
+ [-6308426.19264128]
+ [-6114001.18909858]
+ [-5917554.98768497]
+ [-5719435.02475262]
+ [-5519991.41500947]
+ [-5319585.99006927]
+ [-5239377.94739401]
+ [-5159120.61363682]
+ [-5078838.14017549]
+ [-4998562.07963405]
+ [-4918282.10081878]
+ [-4837978.06504199]
+ [-4797844.97212582]
+ [-4757712.40187414]
+ [-4717582.05810434]]</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -6749,24 +6746,24 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>[[1.26197581e+07]
- [1.63811487e+08]
- [7.10760340e+08]
- [8.02438114e+08]
- [7.69966862e+08]
- [7.37254731e+08]
- [7.04343906e+08]
- [6.71276624e+08]
- [6.38096265e+08]
- [6.24818321e+08]
- [6.11534636e+08]
- [5.98248128e+08]
- [5.84962269e+08]
- [5.71674736e+08]
- [5.58381703e+08]
- [5.51735790e+08]
- [5.45088815e+08]
- [5.38440842e+08]]</t>
+          <t>[[1.18903063e+07]
+ [1.57103742e+08]
+ [7.19890228e+08]
+ [8.01828387e+08]
+ [7.69304897e+08]
+ [7.36528090e+08]
+ [7.03544701e+08]
+ [6.70401265e+08]
+ [6.37145218e+08]
+ [6.23839623e+08]
+ [6.10529350e+08]
+ [5.97217482e+08]
+ [5.83907979e+08]
+ [5.70599573e+08]
+ [5.57289790e+08]
+ [5.50637849e+08]
+ [5.43986379e+08]
+ [5.37335594e+08]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6789,24 +6786,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[1271749.18760955]
- [2933282.90434063]
- [5493876.41299488]
- [9738346.52978513]
- [9738263.42889942]
- [9738179.61832754]
- [9738094.27348482]
- [9738006.31487697]
- [9737914.21518192]
- [9737815.74340546]
- [9737773.99091698]
- [9737730.43422992]
- [9737692.31404396]
- [9737668.12321364]
- [9737651.75108664]
- [9737631.54325621]
- [9737623.24745967]
- [9737614.94493868]]</t>
+          <t>[[1318328.16161285]
+ [3014908.56285902]
+ [5576546.50272568]
+ [9738233.98280783]
+ [9738151.48204744]
+ [9738068.35956451]
+ [9737983.89214581]
+ [9737897.13186319]
+ [9737806.73124658]
+ [9737710.71452739]
+ [9737670.22199596]
+ [9737628.1366008 ]
+ [9737584.14990844]
+ [9737545.98309752]
+ [9737514.6719289 ]
+ [9737483.36096161]
+ [9737467.70555361]
+ [9737452.05019574]]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
@@ -6858,12 +6855,11 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
-  8.          8.          8.          8.          8.          8.
-  8.          7.33333333  6.66666667  6.          6.          6.
-  6.        ]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 8.2756874 7.1378437 6.
+ 6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
@@ -6886,11 +6882,11 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02675689 0.02675689 0.02675689 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -7038,11 +7034,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
- 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
- 2.33203354 2.30088055 2.26972755 2.24646019 2.23107846 2.21569673
- 1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 0.84427821 0.84427821 0.84427821 0.63152787 0.63152787 0.63152787
+ 0.59327921 0.51678188 0.44028456 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -7065,11 +7061,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
- 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -7092,11 +7088,11 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
- 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
@@ -7119,11 +7115,11 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
- 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+  9.29890616  9.29890616  9.29890616  6.96565981  6.96565981  6.96565981
+  5.77513767  3.81687119  2.3604083   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -7146,11 +7142,11 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
- 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+  9.29890616  9.29890616  9.29890616  6.96565981  6.96565981  6.96565981
+  5.77513767  3.81687119  2.3604083   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7173,11 +7169,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
- 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
- 57.26676746 55.00233162 52.79839107 51.1912997  50.14698502 49.11697092
- 20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 18.59781233 18.59781233 18.59781233 13.93131961 13.93131961 13.93131961
+ 11.55027535  7.63374239  4.7208166   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7200,36 +7196,36 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[-3.98400812e+07]
- [-3.71465731e+07]
- [-3.43732546e+07]
- [-3.27849161e+07]
- [-3.11829856e+07]
- [-2.95517012e+07]
- [-2.78704273e+07]
- [-2.61099665e+07]
- [-2.42276682e+07]
- [-2.34295536e+07]
- [-2.25969437e+07]
- [-2.17231552e+07]
- [-2.09797365e+07]
- [-2.03930935e+07]
- [-1.98143934e+07]
- [-1.95280096e+07]
- [-1.92435866e+07]
- [-1.89611245e+07]
- [-1.67372599e+07]
- [-1.54926374e+07]
- [-1.42476566e+07]
- [-1.32437862e+07]
- [-1.22395701e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 5.91098797e-08]]</t>
+          <t>[[-3.77873856e+07]
+ [-3.50861291e+07]
+ [-3.23147867e+07]
+ [-3.07333461e+07]
+ [-2.91399607e+07]
+ [-2.75207661e+07]
+ [-2.58575894e+07]
+ [-2.41245967e+07]
+ [-2.22839073e+07]
+ [-2.15076339e+07]
+ [-2.07008173e+07]
+ [-1.98575436e+07]
+ [-1.91258373e+07]
+ [-1.85255580e+07]
+ [-1.79252788e+07]
+ [-1.76251392e+07]
+ [-1.73249996e+07]
+ [-1.70248600e+07]
+ [-1.52170526e+07]
+ [-1.43882020e+07]
+ [-1.35589421e+07]
+ [-1.26711194e+07]
+ [-1.17829015e+07]
+ [-1.08943008e+07]
+ [-1.03930140e+07]
+ [-9.95597839e+06]
+ [-9.58351937e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7252,36 +7248,36 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[-1.77452855e+06]
- [-1.10579061e+07]
- [-2.38974991e+07]
- [ 3.78880985e+06]
- [ 3.78973803e+06]
- [ 3.79067604e+06]
- [ 3.79165914e+06]
- [ 3.79274087e+06]
- [ 3.79400476e+06]
- [ 3.79028499e+06]
- [ 3.79056976e+06]
- [ 3.79089202e+06]
- [ 3.79069842e+06]
- [ 3.78985210e+06]
- [ 3.78991687e+06]
- [ 3.78851588e+06]
- [ 3.78853182e+06]
- [ 3.78854761e+06]
- [ 3.79468952e+06]
- [ 3.79663109e+06]
- [ 3.79836058e+06]
- [ 3.79829222e+06]
- [ 3.80078539e+06]
- [ 3.80266867e+06]
- [ 3.79610173e+06]
- [ 3.79568692e+06]
- [ 3.79512359e+06]
- [ 3.79221633e+06]
- [ 3.79218997e+06]
- [ 5.06219217e+03]]</t>
+          <t>[[-1.73711397e+06]
+ [-1.12507311e+07]
+ [-2.52356557e+07]
+ [ 3.78901562e+06]
+ [ 3.79006389e+06]
+ [ 3.79111681e+06]
+ [ 3.79220958e+06]
+ [ 3.79339597e+06]
+ [ 3.79476043e+06]
+ [ 3.79061475e+06]
+ [ 3.79091497e+06]
+ [ 3.79125251e+06]
+ [ 3.79109004e+06]
+ [ 3.79029132e+06]
+ [ 3.79040253e+06]
+ [ 3.78877575e+06]
+ [ 3.78880258e+06]
+ [ 3.78882908e+06]
+ [ 3.79272434e+06]
+ [ 3.79412395e+06]
+ [ 3.79536620e+06]
+ [ 3.79762090e+06]
+ [ 3.79941479e+06]
+ [ 3.80076980e+06]
+ [ 3.79526331e+06]
+ [ 3.79449925e+06]
+ [ 3.79362265e+06]
+ [ 3.79111406e+06]
+ [ 3.79108560e+06]
+ [ 3.95776575e+03]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7304,36 +7300,36 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[-1.38048013e+04]
- [-8.62740351e+04]
- [-1.88985022e+05]
- [ 2.24430565e+04]
- [ 2.24503675e+04]
- [ 2.24578255e+04]
- [ 2.24657139e+04]
- [ 2.24744667e+04]
- [ 2.24847667e+04]
- [ 2.24552557e+04]
- [ 2.24575933e+04]
- [ 2.24602429e+04]
- [ 2.24587564e+04]
- [ 2.24520023e+04]
- [ 2.24525826e+04]
- [ 2.24412804e+04]
- [ 2.24414255e+04]
- [ 2.24415704e+04]
- [ 2.24922376e+04]
- [ 2.25098628e+04]
- [ 2.25261843e+04]
- [ 2.25285806e+04]
- [ 2.25555023e+04]
- [ 2.25786467e+04]
- [ 2.25191218e+04]
- [ 2.25183650e+04]
- [ 2.25171826e+04]
- [ 2.24889268e+04]
- [ 2.24919567e+04]
- [ 6.36286144e+01]]</t>
+          <t>[[-1.34941474e+04]
+ [-8.76340982e+04]
+ [-1.99145627e+05]
+ [ 2.24446385e+04]
+ [ 2.24528844e+04]
+ [ 2.24612453e+04]
+ [ 2.24700038e+04]
+ [ 2.24795952e+04]
+ [ 2.24907087e+04]
+ [ 2.24578563e+04]
+ [ 2.24603201e+04]
+ [ 2.24630950e+04]
+ [ 2.24618662e+04]
+ [ 2.24555092e+04]
+ [ 2.24564677e+04]
+ [ 2.24433617e+04]
+ [ 2.24435955e+04]
+ [ 2.24438273e+04]
+ [ 2.24759300e+04]
+ [ 2.24886086e+04]
+ [ 2.25003110e+04]
+ [ 2.25218910e+04]
+ [ 2.25412326e+04]
+ [ 2.25578658e+04]
+ [ 2.25088158e+04]
+ [ 2.25041027e+04]
+ [ 2.24993717e+04]
+ [ 2.24758413e+04]
+ [ 2.24788476e+04]
+ [ 5.05189019e+01]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7356,36 +7352,36 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[-9.76143926e+04]
- [-1.26904685e+06]
- [-5.55182279e+06]
- [-6.32194926e+06]
- [-6.12792394e+06]
- [-5.93197427e+06]
- [-5.73441324e+06]
- [-5.53555801e+06]
- [-5.33573897e+06]
- [-5.25574529e+06]
- [-5.17569418e+06]
- [-5.09560847e+06]
- [-5.01551572e+06]
- [-4.93539667e+06]
- [-4.85521964e+06]
- [-4.81513070e+06]
- [-4.77502947e+06]
- [-4.73491636e+06]
- [-4.42494464e+06]
- [-4.11052434e+06]
- [-3.79297163e+06]
- [-3.33194926e+06]
- [-2.86155666e+06]
- [-2.38548212e+06]
- [-2.09890515e+06]
- [-1.81099865e+06]
- [-1.52139603e+06]
- [-1.32755386e+06]
- [-1.13308630e+06]
- [-6.27757466e-04]]</t>
+          <t>[[-9.18924193e+04]
+ [-1.21540648e+06]
+ [-5.61512271e+06]
+ [-6.30842619e+06]
+ [-6.11400119e+06]
+ [-5.91755499e+06]
+ [-5.71943502e+06]
+ [-5.51999142e+06]
+ [-5.31958599e+06]
+ [-5.23937795e+06]
+ [-5.15912061e+06]
+ [-5.07883814e+06]
+ [-4.99856208e+06]
+ [-4.91828210e+06]
+ [-4.83797807e+06]
+ [-4.79784497e+06]
+ [-4.75771240e+06]
+ [-4.71758206e+06]
+ [-4.40777787e+06]
+ [-4.09324766e+06]
+ [-3.77504907e+06]
+ [-3.31384121e+06]
+ [-2.84592374e+06]
+ [-2.37405267e+06]
+ [-2.09044614e+06]
+ [-1.80576628e+06]
+ [-1.51904263e+06]
+ [-1.32655052e+06]
+ [-1.13289472e+06]
+ [-4.98392136e-04]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7408,36 +7404,36 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 1.26197581e+07]
- [ 1.63811487e+08]
- [ 7.10760340e+08]
- [ 8.02438114e+08]
- [ 7.69966862e+08]
- [ 7.37254731e+08]
- [ 7.04343906e+08]
- [ 6.71276624e+08]
- [ 6.38096265e+08]
- [ 6.24818321e+08]
- [ 6.11534636e+08]
- [ 5.98248128e+08]
- [ 5.84962269e+08]
- [ 5.71674736e+08]
- [ 5.58381703e+08]
- [ 5.51735790e+08]
- [ 5.45088815e+08]
- [ 5.38440842e+08]
- [ 4.87199332e+08]
- [ 4.35486322e+08]
- [ 3.83468421e+08]
- [ 3.08475809e+08]
- [ 2.32690333e+08]
- [ 1.56569705e+08]
- [ 1.10954200e+08]
- [ 6.53642933e+07]
- [ 1.98338868e+07]
- [-1.04343428e+07]
- [-4.06154254e+07]
- [ 4.99402042e-02]]</t>
+          <t>[[ 1.18903063e+07]
+ [ 1.57103742e+08]
+ [ 7.19890228e+08]
+ [ 8.01828387e+08]
+ [ 7.69304897e+08]
+ [ 7.36528090e+08]
+ [ 7.03544701e+08]
+ [ 6.70401265e+08]
+ [ 6.37145218e+08]
+ [ 6.23839623e+08]
+ [ 6.10529350e+08]
+ [ 5.97217482e+08]
+ [ 5.83907979e+08]
+ [ 5.70599573e+08]
+ [ 5.57289790e+08]
+ [ 5.50637849e+08]
+ [ 5.43986379e+08]
+ [ 5.37335594e+08]
+ [ 4.86105753e+08]
+ [ 4.34368493e+08]
+ [ 3.82262134e+08]
+ [ 3.07199908e+08]
+ [ 2.31588172e+08]
+ [ 1.55773724e+08]
+ [ 1.10361830e+08]
+ [ 6.49826409e+07]
+ [ 1.96369767e+07]
+ [-1.05342401e+07]
+ [-4.06315648e+07]
+ [ 3.90417487e-02]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7460,36 +7456,36 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>[[ 1.27174919e+06]
- [ 2.93328290e+06]
- [ 5.49387641e+06]
- [ 9.73834653e+06]
- [ 9.73826343e+06]
- [ 9.73817962e+06]
- [ 9.73809427e+06]
- [ 9.73800631e+06]
- [ 9.73791422e+06]
- [ 9.73781574e+06]
- [ 9.73777399e+06]
- [ 9.73773043e+06]
- [ 9.73769231e+06]
- [ 9.73766812e+06]
- [ 9.73765175e+06]
- [ 9.73763154e+06]
- [ 9.73762325e+06]
- [ 9.73761494e+06]
- [ 9.73828718e+06]
- [ 9.73816694e+06]
- [ 9.73804656e+06]
- [ 9.73899493e+06]
- [ 9.73882252e+06]
- [ 9.73865005e+06]
- [ 9.73869698e+06]
- [ 9.73878887e+06]
- [ 9.73891108e+06]
- [ 9.73893345e+06]
- [ 9.73886435e+06]
- [-2.10940112e-08]]</t>
+          <t>[[1318328.16161285]
+ [3014908.56285902]
+ [5576546.50272568]
+ [9738233.98280783]
+ [9738151.48204744]
+ [9738068.35956451]
+ [9737983.89214581]
+ [9737897.13186319]
+ [9737806.73124658]
+ [9737710.71452739]
+ [9737670.22199596]
+ [9737628.1366008 ]
+ [9737584.14990844]
+ [9737545.98309752]
+ [9737514.6719289 ]
+ [9737483.36096161]
+ [9737467.70555361]
+ [9737452.05019574]
+ [9738882.28874261]
+ [9738761.93872191]
+ [9738641.34781373]
+ [9739185.29270064]
+ [9739012.59240249]
+ [9738839.82137683]
+ [9738803.5947331 ]
+ [9739018.34135744]
+ [9739325.65294418]
+ [9739476.13223996]
+ [9739406.89068818]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -8094,7 +8090,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[2520343.44105258]</t>
+          <t>[2151196.64636414]</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8117,7 +8113,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>[921872.65763496]</t>
+          <t>[723829.5069887]</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8140,7 +8136,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>[3465343.44105258]</t>
+          <t>[3096196.64636414]</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8163,7 +8159,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>[231.02289607]</t>
+          <t>[206.41310976]</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8186,7 +8182,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>[921872.65763496]</t>
+          <t>[723829.5069887]</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8255,7 +8251,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>[2520343.44105258]</t>
+          <t>[2151196.64636414]</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8278,7 +8274,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>[2520343.44105258]</t>
+          <t>[2151196.64636414]</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8301,8 +8297,8 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[226.42020701 264.8186295  291.08265611 311.47390409 334.77929076
+ 353.80818574 370.01636313 331.38951652 287.59677781 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8518,9 +8514,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 8.2756874 7.1378437 6.        6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
@@ -8614,8 +8609,8 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[226.42020701 264.8186295  291.08265611 311.47390409 334.77929076
+ 353.80818574 370.01636313 331.38951652 287.59677781 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -8756,8 +8751,8 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-226.42020701 -264.8186295  -291.08265611 -311.47390409 -334.77929076
+ -353.80818574 -370.01636313 -331.38951652 -287.59677781 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -8831,8 +8826,8 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.02675689 0.02675689 0.02675689 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8973,8 +8968,8 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>[1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[0.84427821 0.84427821 0.84427821 0.63152787 0.63152787 0.63152787
+ 0.59327921 0.51678188 0.44028456 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
@@ -8997,8 +8992,8 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -9021,8 +9016,8 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>[0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
@@ -9045,8 +9040,8 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[9.29890616 9.29890616 9.29890616 6.96565981 6.96565981 6.96565981
+ 5.77513767 3.81687119 2.3604083  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
@@ -9069,8 +9064,8 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>[10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[9.29890616 9.29890616 9.29890616 6.96565981 6.96565981 6.96565981
+ 5.77513767 3.81687119 2.3604083  1.79714065 1.79714065 1.79714065]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9093,8 +9088,8 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>[20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[18.59781233 18.59781233 18.59781233 13.93131961 13.93131961 13.93131961
+ 11.55027535  7.63374239  4.7208166   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -9212,17 +9207,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[[-16738217.96588117]
- [-15493237.19776516]
- [-14247998.30030391]
- [-13243782.17590387]
- [-12239230.64044115]
- [-11234399.61479941]
- [-10692773.72291412]
- [-10198366.94882873]
- [ -9751211.14539443]
- [ -9468851.22077098]
- [ -9186467.52414183]
+          <t>[[-15217654.60499908]
+ [-14388394.75023569]
+ [-13558839.59558168]
+ [-12670621.71716119]
+ [-11782021.05155045]
+ [-10893101.77244471]
+ [-10391936.61375858]
+ [ -9955348.11098362]
+ [ -9583397.55879912]
+ [ -9356975.49637408]
+ [ -9130529.66194337]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -9246,18 +9241,18 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>[[3788167.4739189 ]
- [3790155.35840015]
- [3791947.73190006]
- [3793227.47003119]
- [3795889.25005444]
- [3797959.35488123]
- [3793655.80690484]
- [3793538.49371244]
- [3793290.97103122]
- [3791134.56323117]
- [3791177.73398677]
- [3791152.53442678]]</t>
+          <t>[[3787866.09398038]
+ [3789288.39643889]
+ [3790570.49969557]
+ [3792563.7257105 ]
+ [3794471.39153711]
+ [3795954.31202313]
+ [3792613.78311841]
+ [3792251.49523598]
+ [3791800.05787009]
+ [3790075.31561134]
+ [3790117.70052554]
+ [3790092.11516104]]</t>
         </is>
       </c>
       <c r="E355" t="inlineStr"/>
@@ -9280,18 +9275,18 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>[[22439.06844108]
- [22456.8509272 ]
- [22473.4654087 ]
- [22486.62722969]
- [22514.48186858]
- [22538.71092111]
- [22498.1443531 ]
- [22499.71516757]
- [22500.99725742]
- [22479.18594708]
- [22482.67321247]
- [22485.72346074]]</t>
+          <t>[[22436.4206894 ]
+ [22449.12985794]
+ [22461.00283417]
+ [22480.19747912]
+ [22500.15475496]
+ [22517.52008074]
+ [22486.44805257]
+ [22484.95878208]
+ [22483.62289084]
+ [22466.70355167]
+ [22470.1848455 ]
+ [22473.23271902]]</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
@@ -9314,18 +9309,18 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>[[-4484378.93835935]
- [-4188192.44847848]
- [-3887419.52401721]
- [-3448160.11802425]
- [-2997545.69860142]
- [-2539262.69385433]
- [-2262224.70789238]
- [-1983139.38670695]
- [-1701600.91719722]
- [-1512660.6357525 ]
- [-1322744.33308906]
- [-1132156.51662548]]</t>
+          <t>[[-4455760.72827652]
+ [-4159771.5957196 ]
+ [-3859020.03359574]
+ [-3421087.68135468]
+ [-2974597.06995591]
+ [-2522289.60506181]
+ [-2249339.11272955]
+ [-1974609.80145798]
+ [-1697070.37713774]
+ [-1510200.17547805]
+ [-1321778.006625  ]
+ [-1132156.51586748]]</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -9348,18 +9343,18 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>[[ 5.01301026e+08]
- [ 4.51815370e+08]
- [ 4.01838576e+08]
- [ 3.29473194e+08]
- [ 2.56048191e+08]
- [ 1.82025299e+08]
- [ 1.37521888e+08]
- [ 9.29485097e+07]
- [ 4.83317475e+07]
- [ 1.86081948e+07]
- [-1.10767024e+07]
- [-4.06893978e+07]]</t>
+          <t>[[ 4.98645594e+08]
+ [ 4.49179297e+08]
+ [ 3.99201465e+08]
+ [ 3.26962299e+08]
+ [ 2.53928840e+08]
+ [ 1.80449068e+08]
+ [ 1.36299334e+08]
+ [ 9.20891081e+07]
+ [ 4.78074845e+07]
+ [ 1.82760879e+07]
+ [-1.12365699e+07]
+ [-4.06893979e+07]]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9382,18 +9377,18 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>[[9738287.40385446]
- [9738167.02857039]
- [9738046.62161502]
- [9738994.98974051]
- [9738822.51503668]
- [9738649.9888377 ]
- [9738696.86217031]
- [9738788.74933497]
- [9738911.00098386]
- [9738933.4417317 ]
- [9738864.36480671]
- [9738795.28304614]]</t>
+          <t>[[9738882.62021087]
+ [9738762.02631399]
+ [9738641.37585836]
+ [9739185.27275408]
+ [9739012.4956017 ]
+ [9738839.65012326]
+ [9738803.34647144]
+ [9739018.08524548]
+ [9739325.47707985]
+ [9739476.09501582]
+ [9739406.90494466]
+ [9739337.70859247]]</t>
         </is>
       </c>
       <c r="E359" t="inlineStr"/>
@@ -9556,15 +9551,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[[-186.11554727]
- [-219.76188204]
- [-242.71624674]
- [-260.54450967]
- [-280.94779448]
- [-297.63929912]
- [-311.85803003]
- [-289.98410118]
- [-265.41229165]
+          <t>[[-226.42020701]
+ [-264.8186295 ]
+ [-291.08265611]
+ [-311.47390409]
+ [-334.77929076]
+ [-353.80818574]
+ [-370.01636313]
+ [-331.38951652]
+ [-287.59677781]
  [-237.66700775]
  [-241.01750595]
  [-244.23967215]
@@ -9591,7 +9586,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[921872.65763496]</t>
+          <t>[723829.5069887]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9614,7 +9609,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>[60.21600683]</t>
+          <t>[64.07347334]</t>
         </is>
       </c>
       <c r="E366" t="inlineStr"/>
@@ -9637,7 +9632,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>[4.99988500e+09 4.99988500e+09 1.34990327e+07 0.00000000e+00
+          <t>[4.22741911e+09 4.22741911e+09 1.41882544e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -9661,8 +9656,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
-  9.45357936]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -9685,7 +9679,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E369" t="inlineStr"/>
@@ -9751,8 +9745,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
-  9.45357936]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E372" t="inlineStr"/>
@@ -9775,7 +9768,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
+          <t>[0.075 0.075 0.075 0.075 0.075 0.075]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -10014,7 +10007,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[2189173.36090061]</t>
+          <t>[2203684.0681394]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -10037,7 +10030,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[5365080.13345841]</t>
+          <t>[5365804.40331248]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -10060,7 +10053,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[59.79426401]</t>
+          <t>[60.]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -10083,7 +10076,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[1.04659886e+10 1.04659886e+10 5.40954512e+07 0.00000000e+00
+          <t>[1.06017075e+10 1.06017075e+10 4.80479088e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10107,7 +10100,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[921872.65763496]</t>
+          <t>[723829.5069887]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10130,7 +10123,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>[2520343.44105258]</t>
+          <t>[2151196.64636414]</t>
         </is>
       </c>
       <c r="E389" t="inlineStr"/>
@@ -10222,7 +10215,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[10.04686893]</t>
+          <t>[9.4135311]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10245,7 +10238,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[9.4135311 9.4135311 9.4135311 6.        6.       ]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10268,7 +10261,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[0.04750561 0.02668527 0.025      0.025     ]</t>
+          <t>[0.02675689 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10333,7 +10326,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>[8. 8. 8. 6. 6.]</t>
+          <t>[9.4135311 9.4135311 9.4135311 6.        6.       ]</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -10356,7 +10349,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>[0.04750561 0.02668527 0.025      0.025     ]</t>
+          <t>[0.02675689 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -10651,10 +10644,10 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         10748.86252523
- 11540.86315895 14043.88206594 18656.97161044 26162.55366081
- 37853.78313771 55698.90622113 65244.91194673 76605.11109174
- 90201.63550759     0.             0.             0.
+          <t>[    0.             0.             0.          9439.17691636
+ 10134.78897862 12334.88025603 16391.54285661 22997.23008986
+ 33316.62769868 49105.52769021 57557.58320896 67616.61268137
+ 79652.79025989     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10905,10 +10898,10 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         10748.86252523
- 11540.86315895 14043.88206594 18656.97161044 26162.55366081
- 37853.78313771 55698.90622113 65244.91194673 76605.11109174
- 90201.63550759     0.             0.             0.
+          <t>[    0.             0.             0.          9439.17691636
+ 10134.78897862 12334.88025603 16391.54285661 22997.23008986
+ 33316.62769868 49105.52769021 57557.58320896 67616.61268137
+ 79652.79025989     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11290,10 +11283,10 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -10748.86252523
- -11540.86315895 -14043.88206594 -18656.97161044 -26162.55366081
- -37853.78313771 -55698.90622113 -65244.91194673 -76605.11109174
- -90201.63550759      0.              0.              0.
+          <t>[     0.              0.              0.          -9439.17691636
+ -10134.78897862 -12334.88025603 -16391.54285661 -22997.23008986
+ -33316.62769868 -49105.52769021 -57557.58320896 -67616.61268137
+ -79652.79025989      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11394,7 +11387,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>[0.13046647]</t>
+          <t>[0.13044008]</t>
         </is>
       </c>
       <c r="E442" t="inlineStr"/>
@@ -11417,7 +11410,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>[0.13       0.13046647 0.69109758 0.69212877 0.72963634 1.31355328]</t>
+          <t>[0.13       0.13044008 0.68671582 0.71806868 0.76757142 1.29675292]</t>
         </is>
       </c>
       <c r="E443" t="inlineStr"/>
@@ -11440,7 +11433,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[0.13046647 0.72963634 1.42668773]</t>
+          <t>[0.13044008 0.76757142 1.39777629]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11463,7 +11456,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>[0.13       0.69212877 1.31355328]</t>
+          <t>[0.13       0.71806868 1.29675292]</t>
         </is>
       </c>
       <c r="E445" t="inlineStr"/>
@@ -11486,7 +11479,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>[3.85328592 0.         0.        ]</t>
+          <t>[3.69696591 0.         0.        ]</t>
         </is>
       </c>
       <c r="E446" t="inlineStr"/>
@@ -11505,9 +11498,9 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>[[  0.64045066   0.61285007  -1.42740959   2.6361048   -1.46199594]
- [ -3.92439915  -2.68937208  17.11613025 -12.78817431   3.28581529]
- [ -8.9657648   -1.09288296  64.84991644 -65.20661377  11.4153451 ]]</t>
+          <t>[[  0.69617314   0.73960601  -1.3243942    1.84551344  -0.95689839]
+ [ -4.18388267  -2.50044295  22.24149681 -23.4858829    8.92871171]
+ [ -7.72325992  -0.16688321  50.34077301 -49.42806449   7.97743461]]</t>
         </is>
       </c>
       <c r="E447" t="inlineStr"/>
@@ -11526,9 +11519,9 @@
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>[[  0.63751537   0.61031657  -1.41683041   2.62244668  -1.45344822]
- [ -3.92382945  -2.76581914  16.79405966 -13.00121783   3.89680676]
- [ -7.49017383  -1.74533211  49.63360086 -44.64263921   5.24454429]]</t>
+          <t>[[  0.69300212   0.73690893  -1.30863311   1.82228198  -0.94355992]
+ [ -4.1829148   -2.63140792  22.17801247 -24.34681313   9.98312338]
+ [ -6.73612617  -0.88760729  41.54128308 -38.41341859   5.49586897]]</t>
         </is>
       </c>
       <c r="E448" t="inlineStr"/>
@@ -11547,9 +11540,12 @@
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>[[ -0.84807554  -0.61767408  11.08574106 -11.78053542   3.16054398]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[-9.11450984e-01  1.43897869e-02  1.44598970e+01 -2.12492902e+01
+   8.68645445e+00]
+ [ 0.00000000e+00  0.00000000e+00  0.00000000e+00  0.00000000e+00
+   0.00000000e+00]
+ [ 0.00000000e+00  0.00000000e+00  0.00000000e+00  0.00000000e+00
+   0.00000000e+00]]</t>
         </is>
       </c>
       <c r="E449" t="inlineStr"/>
@@ -11568,9 +11564,12 @@
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>[[ 0.81109061  0.10759173 -0.0465396   0.22156974 -0.09371248]
- [ 3.41316419  0.43744496 -5.14729761  2.94662762 -0.64993916]
- [-1.84249313  0.03754396  7.23872794 -5.56232043  1.12854166]]</t>
+          <t>[[ 8.48487269e-01  1.33954642e-01 -5.06167105e-03  4.48813168e-02
+  -2.22615567e-02]
+ [ 4.18040130e+00  4.00018848e-01 -7.88358840e+00  5.88062060e+00
+  -1.57745234e+00]
+ [-2.12314970e+00  8.38914925e-02  7.70285231e+00 -5.84808004e+00
+   1.18448594e+00]]</t>
         </is>
       </c>
       <c r="E450" t="inlineStr"/>
@@ -11589,9 +11588,12 @@
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>[[ 0.80971478  0.10740807 -0.04407297  0.2199806  -0.09303047]
- [ 3.02463788  0.39311293 -4.33256694  2.50290944 -0.58809331]
- [-2.5574669  -0.05942807  8.65339747 -6.19852982  1.16202732]]</t>
+          <t>[[ 8.47059085e-01  1.33865208e-01 -1.16296342e-03  4.10659133e-02
+  -2.08272426e-02]
+ [ 3.52944626e+00  3.49499232e-01 -6.39143189e+00  4.88589700e+00
+  -1.37341061e+00]
+ [-2.97135664e+00  5.01965250e-03  9.55881845e+00 -6.96488430e+00
+   1.37240284e+00]]</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -11610,7 +11612,7 @@
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>[[-0.53751849 -0.05712753  4.01474474 -3.13243434  0.71233562]
+          <t>[[-0.27484187  0.11861419  4.05195092 -4.03531636  1.13959312]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -11635,37 +11637,37 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>[[5.62185249e-05]
- [4.17656182e-04]
- [9.96134834e-04]
- [7.79141806e-03]
- [2.60791577e-02]
- [5.39079668e-02]
- [9.08915162e-02]
- [1.36640619e-01]
- [1.90763728e-01]
- [2.52867427e-01]
- [2.79854918e-01]
- [3.08030839e-01]
- [3.37369892e-01]
- [3.67859002e-01]
- [3.99508029e-01]
- [4.32337672e-01]
- [4.49200171e-01]
- [4.66365635e-01]
- [4.83836670e-01]
- [6.40661754e-01]
- [8.37166154e-01]
- [1.06913754e+00]
- [1.47750142e+00]
- [1.97643233e+00]
- [2.54368396e+00]
- [2.90928022e+00]
- [3.29117941e+00]
- [3.68576484e+00]
- [3.95212954e+00]
- [4.21725067e+00]
- [4.47922558e+00]]</t>
+          <t>[[5.54264529e-05]
+ [4.32371446e-04]
+ [1.10418241e-03]
+ [8.71758019e-03]
+ [2.92535982e-02]
+ [6.06397459e-02]
+ [1.02435658e-01]
+ [1.54197551e-01]
+ [2.15478849e-01]
+ [2.85830803e-01]
+ [3.16410368e-01]
+ [3.48340339e-01]
+ [3.81591870e-01]
+ [4.16136112e-01]
+ [4.51944267e-01]
+ [4.88987551e-01]
+ [5.07963330e-01]
+ [5.27237082e-01]
+ [5.46805204e-01]
+ [7.21791028e-01]
+ [9.39524225e-01]
+ [1.19545402e+00]
+ [1.62964357e+00]
+ [2.13743113e+00]
+ [2.70070266e+00]
+ [3.05909298e+00]
+ [3.43175544e+00]
+ [3.81740655e+00]
+ [4.07831073e+00]
+ [4.33764979e+00]
+ [4.59306209e+00]]</t>
         </is>
       </c>
       <c r="E453" t="inlineStr"/>
@@ -11688,7 +11690,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>[4.47922558]</t>
+          <t>[4.59306209]</t>
         </is>
       </c>
       <c r="E454" t="inlineStr"/>
@@ -11711,24 +11713,24 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>[[-39840081.21271835]
- [-37146573.08325302]
- [-34373254.64912524]
- [-32784916.12179636]
- [-31182985.63890117]
- [-29551701.2209474 ]
- [-27870427.28150927]
- [-26109966.49050847]
- [-24227668.24931235]
- [-23429553.59946726]
- [-22596943.71496534]
- [-21723155.21933872]
- [-20979736.53725549]
- [-20393093.54655381]
- [-19814393.42755813]
- [-19528009.55935186]
- [-19243586.5740304 ]
- [-18961124.47159461]]</t>
+          <t>[[-37787385.57375415]
+ [-35086129.10309526]
+ [-32314786.7432092 ]
+ [-30733346.0989738 ]
+ [-29139960.67934779]
+ [-27520766.1498585 ]
+ [-25857589.42017383]
+ [-24124596.71099711]
+ [-22283907.27721087]
+ [-21507633.93358327]
+ [-20700817.31149055]
+ [-19857543.57898744]
+ [-19125837.26323156]
+ [-18525558.04752942]
+ [-17925278.83182757]
+ [-17625139.22397685]
+ [-17324999.61612527]
+ [-17024860.00827434]]</t>
         </is>
       </c>
       <c r="E455" t="inlineStr"/>
@@ -11751,24 +11753,24 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>[[ -1774528.55311283]
- [-11057906.05809391]
- [-23897499.09326988]
- [  3788809.84627503]
- [  3789738.02729976]
- [  3790676.03706525]
- [  3791659.1437831 ]
- [  3792740.86600263]
- [  3794004.76225342]
- [  3790284.98962568]
- [  3790569.75784891]
- [  3790892.01623541]
- [  3790698.42383209]
- [  3789852.09985926]
- [  3789916.87306447]
- [  3788515.88459165]
- [  3788531.81532515]
- [  3788547.61049256]]</t>
+          <t>[[ -1737113.97378342]
+ [-11250731.10797293]
+ [-25235655.69767011]
+ [  3789015.62080959]
+ [  3790063.89119496]
+ [  3791116.80651009]
+ [  3792209.57780329]
+ [  3793395.96600758]
+ [  3794760.4268763 ]
+ [  3790614.75401345]
+ [  3790914.96974913]
+ [  3791252.50778832]
+ [  3791090.03753382]
+ [  3790291.31771699]
+ [  3790402.5269152 ]
+ [  3788775.74679588]
+ [  3788802.57575605]
+ [  3788829.08042462]]</t>
         </is>
       </c>
       <c r="E456" t="inlineStr"/>
@@ -11791,24 +11793,24 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>[[ -13804.80133336]
- [ -86274.03510406]
- [-188985.02182135]
- [  22443.05645191]
- [  22450.36748485]
- [  22457.8255266 ]
- [  22465.71394932]
- [  22474.46672254]
- [  22484.76670967]
- [  22455.25574455]
- [  22457.59330042]
- [  22460.24293255]
- [  22458.75642201]
- [  22452.00229817]
- [  22452.58264201]
- [  22441.28037998]
- [  22441.42553885]
- [  22441.57036424]]</t>
+          <t>[[ -13494.14735672]
+ [ -87634.09819615]
+ [-199145.62675679]
+ [  22444.6385442 ]
+ [  22452.88436473]
+ [  22461.24527232]
+ [  22470.00379692]
+ [  22479.595231  ]
+ [  22490.70867931]
+ [  22457.85626627]
+ [  22460.32012497]
+ [  22463.09495226]
+ [  22461.86617614]
+ [  22455.5091714 ]
+ [  22456.46774885]
+ [  22443.36167966]
+ [  22443.59545011]
+ [  22443.82726351]]</t>
         </is>
       </c>
       <c r="E457" t="inlineStr"/>
@@ -11831,24 +11833,24 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>[[  -97614.39261051]
- [-1269046.85311515]
- [-5551822.78507292]
- [-6321949.25969092]
- [-6127923.94090871]
- [-5931974.27214469]
- [-5734413.23842522]
- [-5535558.00971458]
- [-5335738.96908331]
- [-5255745.29380903]
- [-5175694.17963507]
- [-5095608.47245431]
- [-5015515.7156766 ]
- [-4935396.67022509]
- [-4855219.64321535]
- [-4815130.69657295]
- [-4775029.47163198]
- [-4734916.35628638]]</t>
+          <t>[[  -91892.41932494]
+ [-1215406.47713016]
+ [-5615122.71170983]
+ [-6308426.19264128]
+ [-6114001.18909858]
+ [-5917554.98768497]
+ [-5719435.02475262]
+ [-5519991.41500947]
+ [-5319585.99006927]
+ [-5239377.94739401]
+ [-5159120.61363682]
+ [-5078838.14017549]
+ [-4998562.07963405]
+ [-4918282.10081878]
+ [-4837978.06504199]
+ [-4797844.97212582]
+ [-4757712.40187414]
+ [-4717582.05810434]]</t>
         </is>
       </c>
       <c r="E458" t="inlineStr"/>
@@ -11871,24 +11873,24 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>[[1.26197581e+07]
- [1.63811487e+08]
- [7.10760340e+08]
- [8.02438114e+08]
- [7.69966862e+08]
- [7.37254731e+08]
- [7.04343906e+08]
- [6.71276624e+08]
- [6.38096265e+08]
- [6.24818321e+08]
- [6.11534636e+08]
- [5.98248128e+08]
- [5.84962269e+08]
- [5.71674736e+08]
- [5.58381703e+08]
- [5.51735790e+08]
- [5.45088815e+08]
- [5.38440842e+08]]</t>
+          <t>[[1.18903063e+07]
+ [1.57103742e+08]
+ [7.19890228e+08]
+ [8.01828387e+08]
+ [7.69304897e+08]
+ [7.36528090e+08]
+ [7.03544701e+08]
+ [6.70401265e+08]
+ [6.37145218e+08]
+ [6.23839623e+08]
+ [6.10529350e+08]
+ [5.97217482e+08]
+ [5.83907979e+08]
+ [5.70599573e+08]
+ [5.57289790e+08]
+ [5.50637849e+08]
+ [5.43986379e+08]
+ [5.37335594e+08]]</t>
         </is>
       </c>
       <c r="E459" t="inlineStr"/>
@@ -11911,24 +11913,24 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>[[1271749.18760955]
- [2933282.90434063]
- [5493876.41299488]
- [9738346.52978513]
- [9738263.42889942]
- [9738179.61832754]
- [9738094.27348482]
- [9738006.31487697]
- [9737914.21518192]
- [9737815.74340546]
- [9737773.99091698]
- [9737730.43422992]
- [9737692.31404396]
- [9737668.12321364]
- [9737651.75108664]
- [9737631.54325621]
- [9737623.24745967]
- [9737614.94493868]]</t>
+          <t>[[1318328.16161285]
+ [3014908.56285902]
+ [5576546.50272568]
+ [9738233.98280783]
+ [9738151.48204744]
+ [9738068.35956451]
+ [9737983.89214581]
+ [9737897.13186319]
+ [9737806.73124658]
+ [9737710.71452739]
+ [9737670.22199596]
+ [9737628.1366008 ]
+ [9737584.14990844]
+ [9737545.98309752]
+ [9737514.6719289 ]
+ [9737483.36096161]
+ [9737467.70555361]
+ [9737452.05019574]]</t>
         </is>
       </c>
       <c r="E460" t="inlineStr"/>
@@ -11951,9 +11953,9 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>[[ 3.78880985e+06]
- [ 2.24430565e+04]
- [-3.43732546e+07]]</t>
+          <t>[[ 3.78901562e+06]
+ [ 2.24446385e+04]
+ [-3.23147867e+07]]</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
@@ -11976,9 +11978,9 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>[[-6.51373533e+06]
- [ 8.34625598e+08]
- [ 9.73834653e+06]]</t>
+          <t>[[-6.50047917e+06]
+ [ 8.34050878e+08]
+ [ 9.73823398e+06]]</t>
         </is>
       </c>
       <c r="E462" t="inlineStr"/>
@@ -12030,12 +12032,11 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
-  8.          8.          8.          8.          8.          8.
-  8.          7.33333333  6.66666667  6.          6.          6.
-  6.        ]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 8.2756874 7.1378437 6.
+ 6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr"/>
@@ -12058,11 +12059,11 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.07       0.07       0.07       0.07       0.07       0.07
- 0.04750561 0.04750561 0.04750561 0.02668527 0.02668527 0.02668527
- 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
+          <t>[0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.075      0.075      0.075      0.075      0.075      0.075
+ 0.02675689 0.02675689 0.02675689 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr"/>
@@ -12161,11 +12162,11 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
- 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003 2.34761003
- 2.33203354 2.30088055 2.26972755 2.24646019 2.23107846 2.21569673
- 1.26993615 1.26993615 1.26993615 0.71522742 0.71522742 0.71522742
- 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
+          <t>[2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332 2.35436332
+ 0.84427821 0.84427821 0.84427821 0.63152787 0.63152787 0.63152787
+ 0.59327921 0.51678188 0.44028456 0.4020359  0.4020359  0.4020359 ]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr"/>
@@ -12188,11 +12189,11 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
- 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -12215,11 +12216,11 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>[1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001 1.33639001
- 1.32755152 1.30987455 1.29219763 1.27899522 1.2702673  1.2615394
- 0.72257407 0.72257407 0.72257407 0.4064713  0.4064713  0.4064713
- 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
+          <t>[1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986 1.34085986
+ 0.47970591 0.47970591 0.47970591 0.35870937 0.35870937 0.35870937
+ 0.33700457 0.29359502 0.25018563 0.22848101 0.22848101 0.22848101]</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12242,11 +12243,11 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>[58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
- 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707 58.42192707
- 57.26676746 55.00233162 52.79839107 51.1912997  50.14698502 49.11697092
- 20.07909508 20.07909508 20.07909508 11.36754921 11.36754921 11.36754921
-  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
+          <t>[51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592 51.33323592
+ 18.59781233 18.59781233 18.59781233 13.93131961 13.93131961 13.93131961
+ 11.55027535  7.63374239  4.7208166   3.59428131  3.59428131  3.59428131]</t>
         </is>
       </c>
       <c r="E472" t="inlineStr"/>
@@ -12269,11 +12270,11 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
- 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+  9.29890616  9.29890616  9.29890616  6.96565981  6.96565981  6.96565981
+  5.77513767  3.81687119  2.3604083   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12296,11 +12297,11 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353 29.21096353
- 28.63338373 27.50116581 26.39919553 25.59564985 25.07349251 24.55848546
- 10.03954754 10.03954754 10.03954754  5.6837746   5.6837746   5.6837746
-  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
+          <t>[25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+ 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796 25.66661796
+  9.29890616  9.29890616  9.29890616  6.96565981  6.96565981  6.96565981
+  5.77513767  3.81687119  2.3604083   1.79714065  1.79714065  1.79714065]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12425,36 +12426,36 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[[-3.98400812e+07]
- [-3.71465731e+07]
- [-3.43732546e+07]
- [-3.27849161e+07]
- [-3.11829856e+07]
- [-2.95517012e+07]
- [-2.78704273e+07]
- [-2.61099665e+07]
- [-2.42276682e+07]
- [-2.34295536e+07]
- [-2.25969437e+07]
- [-2.17231552e+07]
- [-2.09797365e+07]
- [-2.03930935e+07]
- [-1.98143934e+07]
- [-1.95280096e+07]
- [-1.92435866e+07]
- [-1.89611245e+07]
- [-1.67372599e+07]
- [-1.54926374e+07]
- [-1.42476566e+07]
- [-1.32437862e+07]
- [-1.22395701e+07]
- [-1.12350185e+07]
- [-1.06933511e+07]
- [-1.01986924e+07]
- [-9.75125272e+06]
- [-9.46880457e+06]
- [-9.18644464e+06]
- [ 5.91098797e-08]]</t>
+          <t>[[-3.77873856e+07]
+ [-3.50861291e+07]
+ [-3.23147867e+07]
+ [-3.07333461e+07]
+ [-2.91399607e+07]
+ [-2.75207661e+07]
+ [-2.58575894e+07]
+ [-2.41245967e+07]
+ [-2.22839073e+07]
+ [-2.15076339e+07]
+ [-2.07008173e+07]
+ [-1.98575436e+07]
+ [-1.91258373e+07]
+ [-1.85255580e+07]
+ [-1.79252788e+07]
+ [-1.76251392e+07]
+ [-1.73249996e+07]
+ [-1.70248600e+07]
+ [-1.52170526e+07]
+ [-1.43882020e+07]
+ [-1.35589421e+07]
+ [-1.26711194e+07]
+ [-1.17829015e+07]
+ [-1.08943008e+07]
+ [-1.03930140e+07]
+ [-9.95597839e+06]
+ [-9.58351937e+06]
+ [-9.35692884e+06]
+ [-9.13050678e+06]
+ [-5.06406650e-09]]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12477,36 +12478,36 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[[-1.77452855e+06]
- [-1.10579061e+07]
- [-2.38974991e+07]
- [ 3.78880985e+06]
- [ 3.78973803e+06]
- [ 3.79067604e+06]
- [ 3.79165914e+06]
- [ 3.79274087e+06]
- [ 3.79400476e+06]
- [ 3.79028499e+06]
- [ 3.79056976e+06]
- [ 3.79089202e+06]
- [ 3.79069842e+06]
- [ 3.78985210e+06]
- [ 3.78991687e+06]
- [ 3.78851588e+06]
- [ 3.78853182e+06]
- [ 3.78854761e+06]
- [ 3.79468952e+06]
- [ 3.79663109e+06]
- [ 3.79836058e+06]
- [ 3.79829222e+06]
- [ 3.80078539e+06]
- [ 3.80266867e+06]
- [ 3.79610173e+06]
- [ 3.79568692e+06]
- [ 3.79512359e+06]
- [ 3.79221633e+06]
- [ 3.79218997e+06]
- [ 5.06219217e+03]]</t>
+          <t>[[-1.73711397e+06]
+ [-1.12507311e+07]
+ [-2.52356557e+07]
+ [ 3.78901562e+06]
+ [ 3.79006389e+06]
+ [ 3.79111681e+06]
+ [ 3.79220958e+06]
+ [ 3.79339597e+06]
+ [ 3.79476043e+06]
+ [ 3.79061475e+06]
+ [ 3.79091497e+06]
+ [ 3.79125251e+06]
+ [ 3.79109004e+06]
+ [ 3.79029132e+06]
+ [ 3.79040253e+06]
+ [ 3.78877575e+06]
+ [ 3.78880258e+06]
+ [ 3.78882908e+06]
+ [ 3.79272434e+06]
+ [ 3.79412395e+06]
+ [ 3.79536620e+06]
+ [ 3.79762090e+06]
+ [ 3.79941479e+06]
+ [ 3.80076980e+06]
+ [ 3.79526331e+06]
+ [ 3.79449925e+06]
+ [ 3.79362265e+06]
+ [ 3.79111406e+06]
+ [ 3.79108560e+06]
+ [ 3.95776575e+03]]</t>
         </is>
       </c>
       <c r="E479" t="inlineStr"/>
@@ -12529,36 +12530,36 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>[[-1.38048013e+04]
- [-8.62740351e+04]
- [-1.88985022e+05]
- [ 2.24430565e+04]
- [ 2.24503675e+04]
- [ 2.24578255e+04]
- [ 2.24657139e+04]
- [ 2.24744667e+04]
- [ 2.24847667e+04]
- [ 2.24552557e+04]
- [ 2.24575933e+04]
- [ 2.24602429e+04]
- [ 2.24587564e+04]
- [ 2.24520023e+04]
- [ 2.24525826e+04]
- [ 2.24412804e+04]
- [ 2.24414255e+04]
- [ 2.24415704e+04]
- [ 2.24922376e+04]
- [ 2.25098628e+04]
- [ 2.25261843e+04]
- [ 2.25285806e+04]
- [ 2.25555023e+04]
- [ 2.25786467e+04]
- [ 2.25191218e+04]
- [ 2.25183650e+04]
- [ 2.25171826e+04]
- [ 2.24889268e+04]
- [ 2.24919567e+04]
- [ 6.36286144e+01]]</t>
+          <t>[[-1.34941474e+04]
+ [-8.76340982e+04]
+ [-1.99145627e+05]
+ [ 2.24446385e+04]
+ [ 2.24528844e+04]
+ [ 2.24612453e+04]
+ [ 2.24700038e+04]
+ [ 2.24795952e+04]
+ [ 2.24907087e+04]
+ [ 2.24578563e+04]
+ [ 2.24603201e+04]
+ [ 2.24630950e+04]
+ [ 2.24618662e+04]
+ [ 2.24555092e+04]
+ [ 2.24564677e+04]
+ [ 2.24433617e+04]
+ [ 2.24435955e+04]
+ [ 2.24438273e+04]
+ [ 2.24759300e+04]
+ [ 2.24886086e+04]
+ [ 2.25003110e+04]
+ [ 2.25218910e+04]
+ [ 2.25412326e+04]
+ [ 2.25578658e+04]
+ [ 2.25088158e+04]
+ [ 2.25041027e+04]
+ [ 2.24993717e+04]
+ [ 2.24758413e+04]
+ [ 2.24788476e+04]
+ [ 5.05189019e+01]]</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12581,36 +12582,36 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[[-9.76143926e+04]
- [-1.26904685e+06]
- [-5.55182279e+06]
- [-6.32194926e+06]
- [-6.12792394e+06]
- [-5.93197427e+06]
- [-5.73441324e+06]
- [-5.53555801e+06]
- [-5.33573897e+06]
- [-5.25574529e+06]
- [-5.17569418e+06]
- [-5.09560847e+06]
- [-5.01551572e+06]
- [-4.93539667e+06]
- [-4.85521964e+06]
- [-4.81513070e+06]
- [-4.77502947e+06]
- [-4.73491636e+06]
- [-4.42494464e+06]
- [-4.11052434e+06]
- [-3.79297163e+06]
- [-3.33194926e+06]
- [-2.86155666e+06]
- [-2.38548212e+06]
- [-2.09890515e+06]
- [-1.81099865e+06]
- [-1.52139603e+06]
- [-1.32755386e+06]
- [-1.13308630e+06]
- [-6.27757466e-04]]</t>
+          <t>[[-9.18924193e+04]
+ [-1.21540648e+06]
+ [-5.61512271e+06]
+ [-6.30842619e+06]
+ [-6.11400119e+06]
+ [-5.91755499e+06]
+ [-5.71943502e+06]
+ [-5.51999142e+06]
+ [-5.31958599e+06]
+ [-5.23937795e+06]
+ [-5.15912061e+06]
+ [-5.07883814e+06]
+ [-4.99856208e+06]
+ [-4.91828210e+06]
+ [-4.83797807e+06]
+ [-4.79784497e+06]
+ [-4.75771240e+06]
+ [-4.71758206e+06]
+ [-4.40777787e+06]
+ [-4.09324766e+06]
+ [-3.77504907e+06]
+ [-3.31384121e+06]
+ [-2.84592374e+06]
+ [-2.37405267e+06]
+ [-2.09044614e+06]
+ [-1.80576628e+06]
+ [-1.51904263e+06]
+ [-1.32655052e+06]
+ [-1.13289472e+06]
+ [-4.98392136e-04]]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12633,36 +12634,36 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>[[ 1.26197581e+07]
- [ 1.63811487e+08]
- [ 7.10760340e+08]
- [ 8.02438114e+08]
- [ 7.69966862e+08]
- [ 7.37254731e+08]
- [ 7.04343906e+08]
- [ 6.71276624e+08]
- [ 6.38096265e+08]
- [ 6.24818321e+08]
- [ 6.11534636e+08]
- [ 5.98248128e+08]
- [ 5.84962269e+08]
- [ 5.71674736e+08]
- [ 5.58381703e+08]
- [ 5.51735790e+08]
- [ 5.45088815e+08]
- [ 5.38440842e+08]
- [ 4.87199332e+08]
- [ 4.35486322e+08]
- [ 3.83468421e+08]
- [ 3.08475809e+08]
- [ 2.32690333e+08]
- [ 1.56569705e+08]
- [ 1.10954200e+08]
- [ 6.53642933e+07]
- [ 1.98338868e+07]
- [-1.04343428e+07]
- [-4.06154254e+07]
- [ 4.99402042e-02]]</t>
+          <t>[[ 1.18903063e+07]
+ [ 1.57103742e+08]
+ [ 7.19890228e+08]
+ [ 8.01828387e+08]
+ [ 7.69304897e+08]
+ [ 7.36528090e+08]
+ [ 7.03544701e+08]
+ [ 6.70401265e+08]
+ [ 6.37145218e+08]
+ [ 6.23839623e+08]
+ [ 6.10529350e+08]
+ [ 5.97217482e+08]
+ [ 5.83907979e+08]
+ [ 5.70599573e+08]
+ [ 5.57289790e+08]
+ [ 5.50637849e+08]
+ [ 5.43986379e+08]
+ [ 5.37335594e+08]
+ [ 4.86105753e+08]
+ [ 4.34368493e+08]
+ [ 3.82262134e+08]
+ [ 3.07199908e+08]
+ [ 2.31588172e+08]
+ [ 1.55773724e+08]
+ [ 1.10361830e+08]
+ [ 6.49826409e+07]
+ [ 1.96369767e+07]
+ [-1.05342401e+07]
+ [-4.06315648e+07]
+ [ 3.90417487e-02]]</t>
         </is>
       </c>
       <c r="E482" t="inlineStr"/>
@@ -12685,36 +12686,36 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[[ 1.27174919e+06]
- [ 2.93328290e+06]
- [ 5.49387641e+06]
- [ 9.73834653e+06]
- [ 9.73826343e+06]
- [ 9.73817962e+06]
- [ 9.73809427e+06]
- [ 9.73800631e+06]
- [ 9.73791422e+06]
- [ 9.73781574e+06]
- [ 9.73777399e+06]
- [ 9.73773043e+06]
- [ 9.73769231e+06]
- [ 9.73766812e+06]
- [ 9.73765175e+06]
- [ 9.73763154e+06]
- [ 9.73762325e+06]
- [ 9.73761494e+06]
- [ 9.73828718e+06]
- [ 9.73816694e+06]
- [ 9.73804656e+06]
- [ 9.73899493e+06]
- [ 9.73882252e+06]
- [ 9.73865005e+06]
- [ 9.73869698e+06]
- [ 9.73878887e+06]
- [ 9.73891108e+06]
- [ 9.73893345e+06]
- [ 9.73886435e+06]
- [-2.10940112e-08]]</t>
+          <t>[[1318328.16161285]
+ [3014908.56285902]
+ [5576546.50272568]
+ [9738233.98280783]
+ [9738151.48204744]
+ [9738068.35956451]
+ [9737983.89214581]
+ [9737897.13186319]
+ [9737806.73124658]
+ [9737710.71452739]
+ [9737670.22199596]
+ [9737628.1366008 ]
+ [9737584.14990844]
+ [9737545.98309752]
+ [9737514.6719289 ]
+ [9737483.36096161]
+ [9737467.70555361]
+ [9737452.05019574]
+ [9738882.28874261]
+ [9738761.93872191]
+ [9738641.34781373]
+ [9739185.29270064]
+ [9739012.59240249]
+ [9738839.82137683]
+ [9738803.5947331 ]
+ [9739018.34135744]
+ [9739325.65294418]
+ [9739476.13223996]
+ [9739406.89068818]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12737,24 +12738,24 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[[-1.48001896e+07]
- [ 1.23485026e+07]
- [ 1.07591987e+08]
- [ 1.24035023e+08]
- [ 1.19133191e+08]
- [ 1.14202439e+08]
- [ 1.09258810e+08]
- [ 1.04322007e+08]
- [ 9.94176569e+07]
- [ 9.74741714e+07]
- [ 9.55443927e+07]
- [ 9.36316694e+07]
- [ 9.29568890e+07]
- [ 9.35001558e+07]
- [ 9.40266279e+07]
- [ 9.49624502e+07]
- [ 9.52032997e+07]
- [ 9.54387912e+07]]</t>
+          <t>[[-1.38694188e+07]
+ [ 1.39080781e+07]
+ [ 1.18292590e+08]
+ [ 1.33990719e+08]
+ [ 1.28703219e+08]
+ [ 1.23380227e+08]
+ [ 1.18038033e+08]
+ [ 1.12696143e+08]
+ [ 1.07379347e+08]
+ [ 1.05269036e+08]
+ [ 1.03170839e+08]
+ [ 1.01087836e+08]
+ [ 9.89578788e+07]
+ [ 9.67723005e+07]
+ [ 9.45864699e+07]
+ [ 9.34940960e+07]
+ [ 9.24018085e+07]
+ [ 9.13096466e+07]]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12777,24 +12778,24 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[[ 1437244.38246086]
- [ 8526931.70405535]
- [18355081.87519296]
- [ 3672513.52132344]
- [ 3673200.93960131]
- [ 3673895.65207467]
- [ 3674623.97929238]
- [ 3675425.8767587 ]
- [ 3676363.74063361]
- [ 3673571.7431171 ]
- [ 3673781.24729384]
- [ 3674018.65053705]
- [ 3704017.20027861]
- [ 3765119.23014429]
- [ 3828929.37147667]
- [ 3876830.42546003]
- [ 3909896.35836626]
- [ 3943510.33287551]]</t>
+          <t>[[ 1416439.5294859 ]
+ [ 8667376.52358586]
+ [19332403.82845274]
+ [ 3718762.5690611 ]
+ [ 3719536.81691152]
+ [ 3720314.47234706]
+ [ 3721121.72989456]
+ [ 3721998.59822925]
+ [ 3723007.94200512]
+ [ 3719907.24554792]
+ [ 3720127.43764951]
+ [ 3720375.31919051]
+ [ 3720250.11402428]
+ [ 3719650.91953496]
+ [ 3719730.99009942]
+ [ 3718514.84607579]
+ [ 3718533.42007983]
+ [ 3718551.75223059]]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12819,17 +12820,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-21595129.6204068 ]
- [-40213423.58299597]
- [-34276446.43899234]
- [-28376586.4073388 ]
- [-22524501.41392465]
- [-16738503.35756074]
- [-11048000.45150659]
- [ -7126166.93198114]
- [ -4932148.23788708]
- [ -2772911.14307491]
- [  -845716.4141444 ]
+ [-18865872.4687968 ]
+ [-35131130.68483417]
+ [-29944486.4915464 ]
+ [-24790268.43879746]
+ [-19677787.47188583]
+ [-14623041.17701262]
+ [ -9651721.06937784]
+ [ -6225540.61462738]
+ [ -4308808.57344277]
+ [ -2422462.32886651]
+ [  -743767.1690895 ]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -12893,24 +12894,24 @@
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[[0.06786265]
- [0.0870492 ]
- [0.56070614]
- [0.67114158]
- [0.63128939]
- [0.59178831]
- [0.55280641]
- [0.51456476]
- [0.47735608]
- [0.45861891]
- [0.44453057]
- [0.43074653]
- [0.42324717]
- [0.42381042]
- [0.42622012]
- [0.43046758]
- [0.43157223]
- [0.4326531 ]]</t>
+          <t>[[0.06368748]
+ [0.09253614]
+ [0.60161185]
+ [0.69957664]
+ [0.66080305]
+ [0.62225093]
+ [0.58406554]
+ [0.54643443]
+ [0.50960337]
+ [0.49154439]
+ [0.4774419 ]
+ [0.46358355]
+ [0.45009677]
+ [0.43854775]
+ [0.42868637]
+ [0.42375784]
+ [0.41883063]
+ [0.41390426]]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12929,24 +12930,24 @@
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
-          <t>[[0.08146798]
- [0.12506992]
- [0.66844312]
- [0.56068315]
- [0.48316   ]
- [0.4062451 ]
- [0.33015517]
- [0.25530033]
- [0.18251181]
- [0.07305719]
- [0.06558984]
- [0.05762717]
- [0.05191408]
- [0.04982353]
- [0.04931048]
- [0.04444439]
- [0.04422848]
- [0.04401742]]</t>
+          <t>[[0.07253933]
+ [0.11230666]
+ [0.53766547]
+ [0.43521129]
+ [0.37534615]
+ [0.31600394]
+ [0.25738461]
+ [0.19986952]
+ [0.14424859]
+ [0.06227868]
+ [0.0553839 ]
+ [0.04953789]
+ [0.04542123]
+ [0.04352506]
+ [0.0426173 ]
+ [0.03829466]
+ [0.03786163]
+ [0.03743065]]</t>
         </is>
       </c>
       <c r="E489" t="inlineStr"/>
@@ -12965,24 +12966,24 @@
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>[[0.13753117]
- [0.28899905]
- [0.85651594]
- [0.94675172]
- [0.90615832]
- [0.86532094]
- [0.82420705]
- [0.78275399]
- [0.74085302]
- [0.72395509]
- [0.70694482]
- [0.68980156]
- [0.68373997]
- [0.68883129]
- [0.6939331 ]
- [0.70211892]
- [0.70459633]
- [0.70706996]]</t>
+          <t>[[0.12973791]
+ [0.27851574]
+ [0.87637349]
+ [0.95814851]
+ [0.91656236]
+ [0.87474523]
+ [0.83267834]
+ [0.79031531]
+ [0.74756778]
+ [0.73035616]
+ [0.71304907]
+ [0.69562853]
+ [0.67867167]
+ [0.66224696]
+ [0.64584237]
+ [0.63765128]
+ [0.62946606]
+ [0.62128694]]</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
@@ -13005,36 +13006,36 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[[-1.48001896e+07]
- [ 1.23485026e+07]
- [ 1.07591987e+08]
- [ 1.24035023e+08]
- [ 1.19133191e+08]
- [ 1.14202439e+08]
- [ 1.09258810e+08]
- [ 1.04322007e+08]
- [ 9.94176569e+07]
- [ 9.74741714e+07]
- [ 9.55443927e+07]
- [ 9.36316694e+07]
- [ 9.29568890e+07]
- [ 9.35001558e+07]
- [ 9.40266279e+07]
- [ 9.49624502e+07]
- [ 9.52032997e+07]
- [ 8.74711098e+07]
- [ 1.80940466e+08]
- [ 1.61316535e+08]
- [ 1.41571431e+08]
- [ 1.98587994e+08]
- [ 1.46657153e+08]
- [ 9.44916032e+07]
- [ 7.40982987e+07]
- [ 4.68036155e+07]
- [ 5.49251852e+06]
- [-4.77535079e+06]
- [ 3.61020096e+07]
- [ 6.68654294e-02]]</t>
+          <t>[[-1.38694188e+07]
+ [ 1.39080781e+07]
+ [ 1.18292590e+08]
+ [ 1.33990719e+08]
+ [ 1.28703219e+08]
+ [ 1.23380227e+08]
+ [ 1.18038033e+08]
+ [ 1.12696143e+08]
+ [ 1.07379347e+08]
+ [ 1.05269036e+08]
+ [ 1.03170839e+08]
+ [ 1.01087836e+08]
+ [ 9.89578788e+07]
+ [ 9.67723005e+07]
+ [ 9.45864699e+07]
+ [ 9.34940960e+07]
+ [ 9.24018085e+07]
+ [ 9.13096466e+07]
+ [ 2.28035292e+08]
+ [ 2.02829161e+08]
+ [ 1.77436716e+08]
+ [ 1.87525879e+08]
+ [ 1.37840475e+08]
+ [ 8.80193719e+07]
+ [ 6.70066822e+07]
+ [ 4.63642399e+07]
+ [ 5.63944406e+06]
+ [-5.54998247e+06]
+ [ 4.51427037e+07]
+ [ 6.51784079e-02]]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -13057,36 +13058,36 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[[1.43724438e+06]
- [8.52693170e+06]
- [1.83550819e+07]
- [3.67251352e+06]
- [3.67320094e+06]
- [3.67389565e+06]
- [3.67462398e+06]
- [3.67542588e+06]
- [3.67636374e+06]
- [3.67357174e+06]
- [3.67378125e+06]
- [3.67401865e+06]
- [3.70401720e+06]
- [3.76511923e+06]
- [3.82892937e+06]
- [3.87683043e+06]
- [3.90989636e+06]
- [3.87146601e+06]
- [7.19170454e+06]
- [7.19436771e+06]
- [7.19673733e+06]
- [1.27716626e+07]
- [1.27777359e+07]
- [1.27823087e+07]
- [1.43838401e+07]
- [1.61742930e+07]
- [1.84405072e+07]
- [1.98036015e+07]
- [1.98034630e+07]
- [1.77342383e+04]]</t>
+          <t>[[1.41643953e+06]
+ [8.66737652e+06]
+ [1.93324038e+07]
+ [3.71876257e+06]
+ [3.71953682e+06]
+ [3.72031447e+06]
+ [3.72112173e+06]
+ [3.72199860e+06]
+ [3.72300794e+06]
+ [3.71990725e+06]
+ [3.72012744e+06]
+ [3.72037532e+06]
+ [3.72025011e+06]
+ [3.71965092e+06]
+ [3.71973099e+06]
+ [3.71851485e+06]
+ [3.71853342e+06]
+ [3.71855175e+06]
+ [1.03712246e+07]
+ [1.03741119e+07]
+ [1.03766711e+07]
+ [1.38775200e+07]
+ [1.38824629e+07]
+ [1.38861822e+07]
+ [1.49906929e+07]
+ [1.78405803e+07]
+ [2.19395369e+07]
+ [2.47221229e+07]
+ [2.47219407e+07]
+ [1.73234886e+04]]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -13111,34 +13112,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-2.15951296e+07]
- [-4.02134236e+07]
- [-3.42764464e+07]
- [-2.83765864e+07]
- [-2.25245014e+07]
- [-1.67385034e+07]
- [-1.10480005e+07]
- [-7.12616693e+06]
- [-4.93214824e+06]
- [-2.77291114e+06]
- [-8.45716414e+05]
+ [-1.88658725e+07]
+ [-3.51311307e+07]
+ [-2.99444865e+07]
+ [-2.47902684e+07]
+ [-1.96777875e+07]
+ [-1.46230412e+07]
+ [-9.65172107e+06]
+ [-6.22554061e+06]
+ [-4.30880857e+06]
+ [-2.42246233e+06]
+ [-7.43767169e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-1.07226967e+03]
- [-3.12258222e+03]
- [-3.51262964e+03]
- [-3.79685989e+03]
- [-7.25587513e+03]
- [-7.72256478e+03]
- [-8.11308936e+03]
- [-8.58341336e+03]
- [-8.00992605e+03]
- [-7.39261483e+03]
- [-7.11306770e+03]
- [-7.19770642e+03]
- [-7.27930418e+03]]</t>
+ [-1.07553826e+03]
+ [-6.54389299e+03]
+ [-7.36130257e+03]
+ [-7.95695455e+03]
+ [-1.14056850e+04]
+ [-1.21392857e+04]
+ [-1.27531607e+04]
+ [-1.23901749e+04]
+ [-1.10341261e+04]
+ [-9.59319487e+03]
+ [-8.89877508e+03]
+ [-9.00466201e+03]
+ [-9.10674456e+03]]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -13209,36 +13210,36 @@
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[[6.78626469e-02]
- [8.70491990e-02]
- [5.60706140e-01]
- [6.71141578e-01]
- [6.31289385e-01]
- [5.91788308e-01]
- [5.52806411e-01]
- [5.14564757e-01]
- [4.77356085e-01]
- [4.58618914e-01]
- [4.44530566e-01]
- [4.30746530e-01]
- [4.23247170e-01]
- [4.23810418e-01]
- [4.26220120e-01]
- [4.30467580e-01]
- [4.31572230e-01]
- [3.96684460e-01]
- [8.20109100e-01]
- [7.31612191e-01]
- [6.42634215e-01]
- [9.03533301e-01]
- [6.70671091e-01]
- [4.38855504e-01]
- [3.53502802e-01]
- [2.46663943e-01]
- [1.46546582e-01]
- [1.56593118e-01]
- [2.25187441e-01]
- [1.42739379e-04]]</t>
+          <t>[[6.36874848e-02]
+ [9.25361385e-02]
+ [6.01611852e-01]
+ [6.99576644e-01]
+ [6.60803055e-01]
+ [6.22250928e-01]
+ [5.84065537e-01]
+ [5.46434433e-01]
+ [5.09603367e-01]
+ [4.91544387e-01]
+ [4.77441898e-01]
+ [4.63583549e-01]
+ [4.50096770e-01]
+ [4.38547754e-01]
+ [4.28686375e-01]
+ [4.23757842e-01]
+ [4.18830628e-01]
+ [4.13906689e-01]
+ [1.03432520e+00]
+ [9.20748985e-01]
+ [8.06445880e-01]
+ [8.54905920e-01]
+ [6.32717803e-01]
+ [4.12619800e-01]
+ [3.24964543e-01]
+ [2.51963273e-01]
+ [1.73712916e-01]
+ [1.95237736e-01]
+ [2.81359502e-01]
+ [1.41786856e-04]]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -13257,36 +13258,36 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[8.14679820e-02]
- [1.25069925e-01]
- [6.68443124e-01]
- [5.60683151e-01]
- [4.83159998e-01]
- [4.06245101e-01]
- [3.30155168e-01]
- [2.55300331e-01]
- [1.82511809e-01]
- [7.30571942e-02]
- [6.55898396e-02]
- [5.76271711e-02]
- [5.19140764e-02]
- [4.98235310e-02]
- [4.93104839e-02]
- [4.44443920e-02]
- [4.42284826e-02]
- [4.54349684e-02]
- [1.19325991e-01]
- [1.15238388e-01]
- [1.11228948e-01]
- [3.59566235e-01]
- [3.51096181e-01]
- [3.42658112e-01]
- [3.35356249e-01]
- [3.44469020e-01]
- [3.57933175e-01]
- [3.25801719e-01]
- [3.23149979e-01]
- [5.01178205e-04]]</t>
+          <t>[[0.07253933]
+ [0.11230666]
+ [0.53766547]
+ [0.43521129]
+ [0.37534615]
+ [0.31600394]
+ [0.25738461]
+ [0.19986952]
+ [0.14424859]
+ [0.06227868]
+ [0.0553839 ]
+ [0.04953789]
+ [0.04542123]
+ [0.04352506]
+ [0.0426173 ]
+ [0.03829466]
+ [0.03786163]
+ [0.03743017]
+ [0.32072534]
+ [0.31356667]
+ [0.30641369]
+ [0.62654582]
+ [0.61253339]
+ [0.59849656]
+ [0.50724947]
+ [0.52435916]
+ [0.55391338]
+ [0.50490009]
+ [0.5015719 ]
+ [0.00077716]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -13305,36 +13306,36 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[3.61151272e-01]
- [5.90040859e-01]
- [1.45760815e+00]
- [1.58089706e+00]
- [1.50189903e+00]
- [1.42336575e+00]
- [1.34505930e+00]
- [1.26664788e+00]
- [1.18765359e+00]
- [1.15580147e+00]
- [1.12369376e+00]
- [1.09125658e+00]
- [1.07859092e+00]
- [1.08575483e+00]
- [1.09286411e+00]
- [1.10582787e+00]
- [1.10920603e+00]
- [1.06765982e+00]
- [2.45468107e+00]
- [2.16140958e+00]
- [1.87980638e+00]
- [3.23279289e+00]
- [2.45523119e+00]
- [1.73299823e+00]
- [1.66517121e+00]
- [1.61476290e+00]
- [1.36021503e+00]
- [1.37374121e+00]
- [2.18745050e+00]
- [5.21128436e-10]]</t>
+          <t>[[3.90015489e-01]
+ [6.46531718e-01]
+ [1.68813521e+00]
+ [1.81141139e+00]
+ [1.71769342e+00]
+ [1.62480445e+00]
+ [1.53249266e+00]
+ [1.44040744e+00]
+ [1.34804474e+00]
+ [1.31093248e+00]
+ [1.27360641e+00]
+ [1.23598950e+00]
+ [1.20056528e+00]
+ [1.16757624e+00]
+ [1.13480484e+00]
+ [1.11850590e+00]
+ [1.10226176e+00]
+ [1.08607246e+00]
+ [3.17651166e+00]
+ [2.81467168e+00]
+ [2.46292329e+00]
+ [2.88283375e+00]
+ [2.20428062e+00]
+ [1.55803350e+00]
+ [1.43458958e+00]
+ [1.57796777e+00]
+ [1.63698916e+00]
+ [2.07559846e+00]
+ [3.95952936e+00]
+ [5.46786874e-10]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -13357,8 +13358,8 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[226.42020701 264.8186295  291.08265611 311.47390409 334.77929076
+ 353.80818574 370.01636313 331.38951652 287.59677781 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13478,8 +13479,8 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[186.11554727 219.76188204 242.71624674 260.54450967 280.94779448
- 297.63929912 311.85803003 289.98410118 265.41229165 237.66700775
+          <t>[226.42020701 264.8186295  291.08265611 311.47390409 334.77929076
+ 353.80818574 370.01636313 331.38951652 287.59677781 237.66700775
  241.01750595 244.23967215 247.34415233]</t>
         </is>
       </c>
@@ -13668,8 +13669,8 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[-186.11554727 -219.76188204 -242.71624674 -260.54450967 -280.94779448
- -297.63929912 -311.85803003 -289.98410118 -265.41229165 -237.66700775
+          <t>[-226.42020701 -264.8186295  -291.08265611 -311.47390409 -334.77929076
+ -353.80818574 -370.01636313 -331.38951652 -287.59677781 -237.66700775
  -241.01750595 -244.23967215 -247.34415233]</t>
         </is>
       </c>
@@ -13718,18 +13719,18 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>[[ 1.86558155e+08]
- [ 1.67821957e+08]
- [ 1.48890297e+08]
- [ 2.13365105e+08]
- [ 1.63095865e+08]
- [ 1.12406714e+08]
- [ 9.58240785e+07]
- [ 7.38839385e+07]
- [ 3.96786064e+07]
- [ 6.13728960e+06]
- [-3.36032144e+06]
- [ 3.67633486e+07]]</t>
+          <t>[[ 2.34381748e+08]
+ [ 2.10325606e+08]
+ [ 1.86010912e+08]
+ [ 2.00880328e+08]
+ [ 1.52937638e+08]
+ [ 1.04694333e+08]
+ [ 8.68691625e+07]
+ [ 7.37272683e+07]
+ [ 4.47986859e+07]
+ [ 7.33861129e+06]
+ [-3.82398974e+06]
+ [ 4.58024217e+07]]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13752,18 +13753,18 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[[ 7182678.18770162]
- [ 7185405.42015728]
- [ 7187862.0657939 ]
- [12759201.9593028 ]
- [12765690.06699434]
- [12770722.49105058]
- [14377137.69233974]
- [16167844.06559701]
- [18434425.94276629]
- [19799811.91920833]
- [19799916.97580738]
- [19799782.52338807]]</t>
+          <t>[[10361096.83835669]
+ [10364031.36986184]
+ [10366673.62113173]
+ [13863421.35433656]
+ [13868681.35474158]
+ [13872757.21686083]
+ [14982830.57471668]
+ [17832923.92159808]
+ [21932251.55924006]
+ [24717576.42138284]
+ [24717704.26570146]
+ [24717534.61111985]]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13786,18 +13787,18 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>[[-3122.58221613]
- [-3512.62964459]
- [-3796.85988503]
- [-7255.87513226]
- [-7722.56477673]
- [-8113.0893565 ]
- [-8583.41336499]
- [-8009.92605495]
- [-7392.61483222]
- [-7113.06770454]
- [-7197.70642314]
- [-7279.30418072]]</t>
+          <t>[[ -6543.8929854 ]
+ [ -7361.30256964]
+ [ -7956.95454864]
+ [-11405.684968  ]
+ [-12139.28566614]
+ [-12753.1606637 ]
+ [-12390.1748579 ]
+ [-11034.12610218]
+ [ -9593.19487474]
+ [ -8898.77507806]
+ [ -9004.66201054]
+ [ -9106.74456082]]</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
@@ -13850,18 +13851,18 @@
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
-          <t>[[0.84544794]
- [0.76093882]
- [0.67560112]
- [0.96995897]
- [0.74424048]
- [0.51803929]
- [0.44770202]
- [0.35729253]
- [0.23030569]
- [0.15753623]
- [0.15581166]
- [0.22734527]]</t>
+          <t>[[1.06292993]
+ [0.95451169]
+ [0.8450203 ]
+ [0.91482036]
+ [0.70004932]
+ [0.48573664]
+ [0.40997947]
+ [0.36147234]
+ [0.26560832]
+ [0.196412  ]
+ [0.19435502]
+ [0.28350794]]</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
@@ -13880,18 +13881,18 @@
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[[0.11924973]
- [0.11516017]
- [0.11114934]
- [0.35932768]
- [0.35086187]
- [0.3424295 ]
- [0.33524281]
- [0.34436763]
- [0.35784535]
- [0.32575693]
- [0.32310779]
- [0.32047035]]</t>
+          <t>[[0.32054864]
+ [0.31338667]
+ [0.30623206]
+ [0.62611085]
+ [0.61210135]
+ [0.59806976]
+ [0.50705321]
+ [0.52419049]
+ [0.55377542]
+ [0.50483337]
+ [0.50150936]
+ [0.49819006]]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13910,18 +13911,18 @@
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[[2.1667213 ]
- [1.94561461]
- [1.72518648]
- [2.63660925]
- [2.06677556]
- [1.5028457 ]
- [1.40447555]
- [1.25955071]
- [0.96991579]
- [0.62881304]
- [0.49811514]
- [0.94992141]]</t>
+          <t>[[3.98092574]
+ [3.58378293]
+ [3.18633556]
+ [3.58354327]
+ [2.81574997]
+ [2.05328367]
+ [1.85950864]
+ [1.87430366]
+ [1.70210061]
+ [1.16305746]
+ [0.90173369]
+ [1.89763313]]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13944,7 +13945,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[0.16755722]</t>
+          <t>[0.17422958]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13967,7 +13968,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[0.16867473]</t>
+          <t>[0.17541776]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13990,7 +13991,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[0.16755722 0.16867473 0.6932861  0.93813054 1.05729526 2.44616461]</t>
+          <t>[0.17422958 0.17541776 0.68541512 0.89791812 1.02155922 2.54282033]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14009,12 +14010,12 @@
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[[ 1.00236903e+00 -4.74908334e-02  7.80309127e-01 -1.24771405e+00
-   5.12526725e-01]
- [-5.82491765e+02  7.46519949e+02 -7.11915079e+02  7.35526585e+02
-  -1.87512390e+02]
- [-8.76845273e+01  1.37400130e+02 -2.17201942e+01  5.92118091e+00
-  -3.29165898e+01]]</t>
+          <t>[[ 1.17546666e+00  1.11429193e-01 -6.86064146e-01  5.03278812e-01
+  -1.04110522e-01]
+ [ 1.87454750e+02 -2.58202544e+02  1.70596538e+02 -3.03386497e+01
+  -6.85100946e+01]
+ [-1.00871682e+02  2.35520079e+02 -2.74359535e+02  2.64861916e+02
+  -1.24150778e+02]]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -14033,12 +14034,12 @@
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>[[ 9.95711603e-01 -4.04234630e-02  7.73796856e-01 -1.24281358e+00
-   5.13728586e-01]
- [ 8.58125281e+01 -1.05387474e+02  1.01931878e+02 -1.01968306e+02
-   2.06113741e+01]
- [-8.14808086e+01  1.27830537e+02 -3.01461261e+01  2.06165095e+01
-  -3.58201120e+01]]</t>
+          <t>[[ 1.16751504e+00  1.18661834e-01 -6.83308039e-01  4.90403565e-01
+  -9.32724031e-02]
+ [ 5.40900757e+01 -6.82130908e+01  3.48780096e+01  1.01901059e+01
+  -2.99451005e+01]
+ [-9.60023504e+01  2.22944073e+02 -2.62695477e+02  2.54877571e+02
+  -1.18123817e+02]]</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -14057,7 +14058,7 @@
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
-          <t>[[  5.4059709  -15.65099825  23.96755902 -17.96272275   5.24019109]
+          <t>[[  7.47631825 -25.26084906  40.8935621  -31.44053366   9.33150237]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -14082,7 +14083,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[0.16867473 1.05729526 2.52225215]</t>
+          <t>[0.17541776 1.02155922 2.60265859]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -14105,7 +14106,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[0.16755722 0.93813054 2.44616461]</t>
+          <t>[0.17422958 0.89791812 2.54282033]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -14128,7 +14129,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[4.65334262 0.         0.        ]</t>
+          <t>[4.2678218 0.        0.       ]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -14152,18 +14153,18 @@
       <c r="D529" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.02259075]
- [0.08600995]
- [0.18622664]
- [0.4101936 ]
- [0.73088831]
- [1.12675751]
- [1.39336039]
- [1.68021181]
- [1.98522198]
- [2.19572058]
- [2.40843701]
- [2.61983392]]</t>
+ [0.02463621]
+ [0.09312399]
+ [0.20111225]
+ [0.42709861]
+ [0.73141645]
+ [1.09656937]
+ [1.33911321]
+ [1.599325  ]
+ [1.87811907]
+ [2.07225389]
+ [2.26910536]
+ [2.46428815]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -14186,7 +14187,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[2.61983392]</t>
+          <t>[2.46428815]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -14209,17 +14210,17 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[-16738217.96588117]
- [-15493237.19776516]
- [-14247998.30030391]
- [-13243782.17590387]
- [-12239230.64044115]
- [-11234399.61479941]
- [-10692773.72291412]
- [-10198366.94882873]
- [ -9751211.14539443]
- [ -9468851.22077098]
- [ -9186467.52414183]
+          <t>[[-15217654.60499908]
+ [-14388394.75023569]
+ [-13558839.59558168]
+ [-12670621.71716119]
+ [-11782021.05155045]
+ [-10893101.77244471]
+ [-10391936.61375858]
+ [ -9955348.11098362]
+ [ -9583397.55879912]
+ [ -9356975.49637408]
+ [ -9130529.66194337]
  [ -8904060.94535821]]</t>
         </is>
       </c>
@@ -14243,18 +14244,18 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[3788167.4739189 ]
- [3790155.35840015]
- [3791947.73190006]
- [3793227.47003119]
- [3795889.25005444]
- [3797959.35488123]
- [3793655.80690484]
- [3793538.49371244]
- [3793290.97103122]
- [3791134.56323117]
- [3791177.73398677]
- [3791152.53442678]]</t>
+          <t>[[3787866.09398038]
+ [3789288.39643889]
+ [3790570.49969557]
+ [3792563.7257105 ]
+ [3794471.39153711]
+ [3795954.31202313]
+ [3792613.78311841]
+ [3792251.49523598]
+ [3791800.05787009]
+ [3790075.31561134]
+ [3790117.70052554]
+ [3790092.11516104]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14277,18 +14278,18 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[22439.06844108]
- [22456.8509272 ]
- [22473.4654087 ]
- [22486.62722969]
- [22514.48186858]
- [22538.71092111]
- [22498.1443531 ]
- [22499.71516757]
- [22500.99725742]
- [22479.18594708]
- [22482.67321247]
- [22485.72346074]]</t>
+          <t>[[22436.4206894 ]
+ [22449.12985794]
+ [22461.00283417]
+ [22480.19747912]
+ [22500.15475496]
+ [22517.52008074]
+ [22486.44805257]
+ [22484.95878208]
+ [22483.62289084]
+ [22466.70355167]
+ [22470.1848455 ]
+ [22473.23271902]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14311,18 +14312,18 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[-4484378.93835935]
- [-4188192.44847848]
- [-3887419.52401721]
- [-3448160.11802425]
- [-2997545.69860142]
- [-2539262.69385433]
- [-2262224.70789238]
- [-1983139.38670695]
- [-1701600.91719722]
- [-1512660.6357525 ]
- [-1322744.33308906]
- [-1132156.51662548]]</t>
+          <t>[[-4455760.72827652]
+ [-4159771.5957196 ]
+ [-3859020.03359574]
+ [-3421087.68135468]
+ [-2974597.06995591]
+ [-2522289.60506181]
+ [-2249339.11272955]
+ [-1974609.80145798]
+ [-1697070.37713774]
+ [-1510200.17547805]
+ [-1321778.006625  ]
+ [-1132156.51586748]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14345,18 +14346,18 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>[[ 5.01301026e+08]
- [ 4.51815370e+08]
- [ 4.01838576e+08]
- [ 3.29473194e+08]
- [ 2.56048191e+08]
- [ 1.82025299e+08]
- [ 1.37521888e+08]
- [ 9.29485097e+07]
- [ 4.83317475e+07]
- [ 1.86081948e+07]
- [-1.10767024e+07]
- [-4.06893978e+07]]</t>
+          <t>[[ 4.98645594e+08]
+ [ 4.49179297e+08]
+ [ 3.99201465e+08]
+ [ 3.26962299e+08]
+ [ 2.53928840e+08]
+ [ 1.80449068e+08]
+ [ 1.36299334e+08]
+ [ 9.20891081e+07]
+ [ 4.78074845e+07]
+ [ 1.82760879e+07]
+ [-1.12365699e+07]
+ [-4.06893979e+07]]</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -14379,18 +14380,18 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[[9738287.40385446]
- [9738167.02857039]
- [9738046.62161502]
- [9738994.98974051]
- [9738822.51503668]
- [9738649.9888377 ]
- [9738696.86217031]
- [9738788.74933497]
- [9738911.00098386]
- [9738933.4417317 ]
- [9738864.36480671]
- [9738795.28304614]]</t>
+          <t>[[9738882.62021087]
+ [9738762.02631399]
+ [9738641.37585836]
+ [9739185.27275408]
+ [9739012.4956017 ]
+ [9738839.65012326]
+ [9738803.34647144]
+ [9739018.08524548]
+ [9739325.47707985]
+ [9739476.09501582]
+ [9739406.90494466]
+ [9739337.70859247]]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
@@ -14413,9 +14414,9 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[  3787067.18771657]
- [    22429.54651138]
- [-17982840.48547237]]</t>
+          <t>[[  3787067.18771706]
+ [    22429.54651141]
+ [-16046505.18547176]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14438,8 +14439,8 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[-4.77467500e+06]
- [ 5.50129008e+08]
+          <t>[[-4.74594802e+06]
+ [ 5.47463285e+08]
  [ 9.73654846e+06]]</t>
         </is>
       </c>
@@ -14463,7 +14464,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1873207.14105459]</t>
+          <t>[1675163.99040833]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14486,7 +14487,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[-3.72763558e+00 -5.04267161e-02  1.14733657e+02]</t>
+          <t>[-4.16832837e+00 -5.63883209e-02  1.22845696e+02]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14509,7 +14510,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[3.06417113e+10 3.05359749e+10 2.66686538e+08 8.52611923e+02
+          <t>[2.98692454e+10 2.97635090e+10 2.67375759e+08 8.52611923e+02
  1.94199094e+07 1.70683998e+05]</t>
         </is>
       </c>
@@ -14529,8 +14530,8 @@
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[143.52669902 143.52669902 143.52669902 143.52669902 140.6896862
- 136.45190352]</t>
+          <t>[125.51374798 125.51374798 125.51374798 125.51374798 125.51374798
+ 125.51374798]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14549,7 +14550,7 @@
       <c r="C543" t="inlineStr"/>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         0.96046711 0.97967729]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -14568,7 +14569,7 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         0.96046711 0.97967729]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14669,10 +14670,10 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[5.02343447 5.02343447 5.02343447 5.02343447 5.02343447 5.02343447
- 5.02343447 5.02343447 5.02343447 5.02343447 5.02343447 5.02343447
- 5.02343447 4.9572375  4.89104053 4.82484357 4.79215894 4.75947431
- 4.72678968]</t>
+          <t>[4.70676555 4.70676555 4.70676555 4.70676555 4.70676555 4.70676555
+ 4.70676555 4.70676555 4.70676555 4.70676555 4.70676555 4.70676555
+ 4.70676555 4.70676555 4.70676555 4.70676555 4.70676555 4.70676555
+ 4.70676555]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14718,7 +14719,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[8324.16449261]</t>
+          <t>[7307.76046892]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14741,7 +14742,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>[83670241.58858526]</t>
+          <t>[73453868.48712978]</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -14783,7 +14784,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>[79.27775707]</t>
+          <t>[69.59771875]</t>
         </is>
       </c>
       <c r="E554" t="inlineStr"/>
@@ -14806,7 +14807,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[500.14144572]</t>
+          <t>[385.46073517]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14829,7 +14830,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>[500.14144572]</t>
+          <t>[385.46073517]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14852,8 +14853,8 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[8.53226860e+06 8.53226860e+06 1.73246642e+05 7.83941768e+09
- 7.83941768e+09 0.00000000e+00]</t>
+          <t>[7.49045448e+06 7.49045448e+06 1.42505065e+05 6.88220261e+09
+ 6.88220261e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14925,10 +14926,9 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893  9.914475    9.78208107  9.64968714  9.58431788  9.51894862
-  9.45357936]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
@@ -15182,8 +15182,8 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[18311.35827078 18311.35827078 18311.35827077 18311.35827079
- 17946.86825908 17402.41197563]</t>
+          <t>[18364.03390117 18364.03390116 18364.03390116 18364.03390115
+ 18364.03390115 18364.03390114]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15210,8 +15210,8 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>[227845.51555423 227845.51555418 227845.51555414 227845.51555482
- 214509.09332067 195573.24158835]</t>
+          <t>[200199.6201032  200199.620103   200199.62010281 200199.62010262
+ 200199.62010243 200199.62010224]</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15238,8 +15238,8 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[227845.51555423 227845.51555418 227845.51555414 227845.51555482
- 214509.09332067 195573.24158835]</t>
+          <t>[200199.6201032  200199.620103   200199.62010281 200199.62010262
+ 200199.62010243 200199.62010224]</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15266,8 +15266,8 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[5.45999318e+12 5.45999318e+12 5.45999318e+12 5.45999318e+12
- 5.14040482e+12 4.68663411e+12]</t>
+          <t>[4.79749868e+12 4.79749868e+12 4.79749868e+12 4.79749868e+12
+ 4.79749868e+12 4.79749868e+12]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15294,8 +15294,8 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>[5.45999318e+12 5.45999318e+12 5.45999318e+12 5.45999318e+12
- 5.14040482e+12 4.68663411e+12]</t>
+          <t>[4.79749868e+12 4.79749868e+12 4.79749868e+12 4.79749868e+12
+ 4.79749868e+12 4.79749868e+12]</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -15322,8 +15322,8 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>[4.32977459e+12 4.32977459e+12 4.32977459e+12 4.32977459e+12
- 4.07634103e+12 3.71650085e+12]</t>
+          <t>[3.80441646e+12 3.80441646e+12 3.80441646e+12 3.80441646e+12
+ 3.80441646e+12 3.80441646e+12]</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -15350,8 +15350,8 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>[4.38805614e+11 4.38805614e+11 4.38805614e+11 4.38805614e+11
- 4.30071130e+11 4.17024011e+11]</t>
+          <t>[4.4006791e+11 4.4006791e+11 4.4006791e+11 4.4006791e+11 4.4006791e+11
+ 4.4006791e+11]</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -15459,12 +15459,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
- [0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
- [0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
- [0.         0.         0.45578268 0.18400882 0.18400882 0.        ]
- [0.         0.         0.46503935 0.19158565 0.19158565 0.        ]
- [0.         0.         0.47958869 0.20380582 0.20380582 0.        ]]</t>
+          <t>[[0.         0.         0.45447531 0.19621748 0.19621748 0.        ]
+ [0.         0.         0.45447531 0.19621748 0.19621748 0.        ]
+ [0.         0.         0.45447531 0.19621748 0.19621748 0.        ]
+ [0.         0.         0.45447531 0.19621748 0.19621748 0.        ]
+ [0.         0.         0.45447531 0.19621748 0.19621748 0.        ]
+ [0.         0.         0.45447531 0.19621748 0.19621748 0.        ]]</t>
         </is>
       </c>
       <c r="E581" t="inlineStr"/>
@@ -15487,12 +15487,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[[0.74828455 0.74828455 0.         0.         0.         0.09200441]
- [0.74828455 0.74828455 0.         0.         0.         0.09200441]
- [0.74828455 0.74828455 0.         0.         0.         0.09200441]
- [0.74828455 0.74828455 0.         0.         0.         0.09200441]
- [0.76343189 0.76343189 0.         0.         0.         0.09579283]
- [0.78723588 0.78723588 0.         0.         0.         0.10190291]]</t>
+          <t>[[0.74579009 0.74579009 0.         0.         0.         0.09810874]
+ [0.74579009 0.74579009 0.         0.         0.         0.09810874]
+ [0.74579009 0.74579009 0.         0.         0.         0.09810874]
+ [0.74579009 0.74579009 0.         0.         0.         0.09810874]
+ [0.74579009 0.74579009 0.         0.         0.         0.09810874]
+ [0.74579009 0.74579009 0.         0.         0.         0.09810874]]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[1145.28539245]</t>
+          <t>[1140.02159489]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15538,7 +15538,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[5365080.13345841]</t>
+          <t>[5365804.40331248]</t>
         </is>
       </c>
       <c r="E584" t="inlineStr"/>
@@ -15561,7 +15561,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[2189173.36090061]</t>
+          <t>[2203684.0681394]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[59.79426401]</t>
+          <t>[60.]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[1.04659886e+10 1.04659886e+10 5.40954512e+07 0.00000000e+00
+          <t>[1.06017075e+10 1.06017075e+10 4.80479088e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -15631,9 +15631,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
- 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893 10.04686893
-  9.98067197  9.84827803  9.7158841   9.61700251  9.55163325  9.48626399]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15656,8 +15656,8 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
- 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
+          <t>[0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025
+ 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025 0.08025]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>[2289173.36090061]</t>
+          <t>[2303684.0681394]</t>
         </is>
       </c>
       <c r="E591" t="inlineStr"/>
@@ -15713,7 +15713,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>fixedse.monopile_cost</t>
+          <t>fixedse.mono.grav_foundation_mass</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -15723,12 +15723,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>[5865080.13345841]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E592" t="inlineStr"/>
@@ -15736,7 +15736,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>fixedse.monopile_z_cg</t>
+          <t>fixedse.monopile_cost</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -15746,12 +15746,12 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[62.42428483]</t>
+          <t>[5865804.40331248]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr"/>
@@ -15759,7 +15759,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>fixedse.monopile_I_base</t>
+          <t>fixedse.monopile_z_cg</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -15769,13 +15769,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>kg*m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[1.19071057e+10 1.19071057e+10 5.63297052e+07 0.00000000e+00
- 0.00000000e+00 0.00000000e+00]</t>
+          <t>[62.60452381]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15783,7 +15782,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>fixedse.structural_mass</t>
+          <t>fixedse.monopile_I_base</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -15793,12 +15792,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>kg*m**2</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[3211046.01853557]</t>
+          <t>[1.20428152e+10 1.20428152e+10 5.02632730e+07 0.00000000e+00
+ 0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr"/>
@@ -15806,7 +15806,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>fixedse.structural_cost</t>
+          <t>fixedse.structural_mass</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -15816,12 +15816,12 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[8385423.57451098]</t>
+          <t>[3027513.5751281]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>fixedse.z_start</t>
+          <t>fixedse.structural_cost</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -15839,12 +15839,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[-105.]</t>
+          <t>[8017001.04967662]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr"/>
@@ -15852,7 +15852,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>fixedse.constr_diam_consistency</t>
+          <t>fixedse.z_start</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -15860,10 +15860,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[0.84624032]</t>
+          <t>[-105.]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr"/>
@@ -15871,7 +15875,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>fixedse.soil.z_k</t>
+          <t>fixedse.constr_diam_consistency</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -15879,14 +15883,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>N/m</t>
-        </is>
-      </c>
+      <c r="C599" t="inlineStr"/>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
+          <t>[1.]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15894,7 +15894,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>fixedse.soil.k</t>
+          <t>fixedse.soil.z_k</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -15909,26 +15909,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[[3.15652084e+10 1.87316120e+13 3.15652084e+10 1.87316120e+13
-  1.98085388e+10 9.46518238e+10]
- [2.84527873e+10 1.32741969e+13 2.84527873e+10 1.32741969e+13
-  1.81285388e+10 9.46518238e+10]
- [2.53403663e+10 9.01144854e+12 2.53403663e+10 9.01144854e+12
-  1.64485388e+10 9.46518238e+10]
- [2.22279452e+10 5.79403349e+12 2.22279452e+10 5.79403349e+12
-  1.47685388e+10 9.46518238e+10]
- [1.91155242e+10 3.47261844e+12 1.91155242e+10 3.47261844e+12
-  1.30885388e+10 9.46518238e+10]
- [1.60031031e+10 1.89787006e+12 1.60031031e+10 1.89787006e+12
-  1.14085388e+10 9.46518238e+10]
- [1.28906821e+10 9.20455006e+11 1.28906821e+10 9.20455006e+11
-  9.72853883e+09 9.46518238e+10]
- [9.77826101e+09 3.91039955e+11 9.77826101e+09 3.91039955e+11
-  8.04853883e+09 9.46518238e+10]
- [6.66583996e+09 1.60291571e+11 6.66583996e+09 1.60291571e+11
-  6.36853883e+09 9.46518238e+10]
- [3.55341891e+09 7.88765198e+10 3.55341891e+09 7.88765198e+10
-  4.68853883e+09 9.46518238e+10]]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15936,7 +15917,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>towerse.constr_d_to_t</t>
+          <t>fixedse.soil.k</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -15944,10 +15925,33 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>N/m</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[168.40117679 299.79086127 280.         240.        ]</t>
+          <t>[[3.13412068e+10 1.86554978e+13 3.13412068e+10 1.86554978e+13
+  1.95129812e+10 7.78564257e+10]
+ [2.82287857e+10 1.32049847e+13 2.82287857e+10 1.32049847e+13
+  1.78329812e+10 7.78564257e+10]
+ [2.51163647e+10 8.94913835e+12 2.51163647e+10 8.94913835e+12
+  1.61529812e+10 7.78564257e+10]
+ [2.20039436e+10 5.73862530e+12 2.20039436e+10 5.73862530e+12
+  1.44729812e+10 7.78564257e+10]
+ [1.88915226e+10 3.42411226e+12 1.88915226e+10 3.42411226e+12
+  1.27929812e+10 7.78564257e+10]
+ [1.57791015e+10 1.85626588e+12 1.57791015e+10 1.85626588e+12
+  1.11129812e+10 7.78564257e+10]
+ [1.26666805e+10 8.85752829e+11 1.26666805e+10 8.85752829e+11
+  9.43298118e+09 7.78564257e+10]
+ [9.55425942e+09 3.63239782e+11 9.55425942e+09 3.63239782e+11
+  7.75298118e+09 7.78564257e+10]
+ [6.44183837e+09 1.39393402e+11 6.44183837e+09 1.39393402e+11
+  6.07298118e+09 7.78564257e+10]
+ [3.32941731e+09 6.48803547e+10 3.32941731e+09 6.48803547e+10
+  4.39298118e+09 7.78564257e+10]]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15955,7 +15959,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>towerse.constr_taper</t>
+          <t>towerse.constr_d_to_t</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -15966,7 +15970,7 @@
       <c r="C602" t="inlineStr"/>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[351.8171477  470.67655491 385.33827746 300.        ]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15974,7 +15978,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>towerse.slope</t>
+          <t>towerse.constr_taper</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -15985,7 +15989,7 @@
       <c r="C603" t="inlineStr"/>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[1.   1.   0.75 1.  ]</t>
+          <t>[1.         1.         0.63738038 1.        ]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15993,7 +15997,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>towerse.thickness_slope</t>
+          <t>towerse.slope</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -16004,7 +16008,7 @@
       <c r="C604" t="inlineStr"/>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[0.56172885 0.93684644 1.        ]</t>
+          <t>[1.         1.         0.63738038 1.        ]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -16012,7 +16016,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>towerse.member.ca_usr_grid_full</t>
+          <t>towerse.thickness_slope</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -16023,7 +16027,7 @@
       <c r="C605" t="inlineStr"/>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.74747115 1.         1.        ]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -16031,7 +16035,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>towerse.member.cd_usr_grid_full</t>
+          <t>towerse.member.ca_usr_grid_full</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -16050,7 +16054,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>towerse.member.nu_full</t>
+          <t>towerse.member.cd_usr_grid_full</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -16061,41 +16065,35 @@
       <c r="C607" t="inlineStr"/>
       <c r="D607" t="inlineStr">
         <is>
+          <t>[0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>towerse.member.nu_full</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
           <t>[0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405
  0.26103405 0.26103405 0.26103405 0.26103405 0.26103405 0.26103405]</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>towerse.member.nodes_r</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>[4.         4.         4.         4.         4.         4.
- 4.         3.66666667 3.33333333 3.         3.         3.
- 3.        ]</t>
-        </is>
-      </c>
       <c r="E608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>towerse.member.center_of_buoyancy</t>
+          <t>towerse.member.nodes_r</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16110,7 +16108,9 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0. 0. 0.]</t>
+          <t>[4.70676555 4.70676555 4.70676555 4.70676555 4.70676555 4.70676555
+ 4.70676555 4.1378437  3.56892185 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16118,7 +16118,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>towerse.member.displacement</t>
+          <t>towerse.member.center_of_buoyancy</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16128,12 +16128,12 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>m**3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[0. 0. 0.]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16141,7 +16141,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>towerse.member.buoyancy_force</t>
+          <t>towerse.member.displacement</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>m**3</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -16164,7 +16164,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>towerse.member.idx_cb</t>
+          <t>towerse.member.buoyancy_force</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16172,7 +16172,11 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="D612" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16183,7 +16187,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>towerse.member.Awater</t>
+          <t>towerse.member.idx_cb</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16191,11 +16195,7 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>m**2</t>
-        </is>
-      </c>
+      <c r="C613" t="inlineStr"/>
       <c r="D613" t="inlineStr">
         <is>
           <t>[0.]</t>
@@ -16206,7 +16206,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>towerse.member.Iwaterx</t>
+          <t>towerse.member.Awater</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>m**4</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -16229,7 +16229,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>towerse.member.Iwatery</t>
+          <t>towerse.member.Iwaterx</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -16252,7 +16252,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>towerse.member.added_mass</t>
+          <t>towerse.member.Iwatery</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -16262,12 +16262,12 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>m**4</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0. 0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16275,7 +16275,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>towerse.member.waterline_centroid</t>
+          <t>towerse.member.added_mass</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -16285,12 +16285,12 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0. 0. 0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16298,57 +16298,55 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
+          <t>towerse.member.waterline_centroid</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>[0. 0.]</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
           <t>towerse.member.z_dim</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D619" t="inlineStr">
         <is>
           <t>[ 15.          27.78666667  40.57333333  53.36        71.62666667
   89.89333333 108.16       119.12       130.08       141.04
  148.34666667 155.65333333 162.96      ]</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>towerse.member.d_eff</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 8.         7.33333333 6.66666667 6.         6.         6.
- 6.        ]</t>
-        </is>
-      </c>
       <c r="E619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>towerse.tower_section_height</t>
+          <t>towerse.member.d_eff</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -16363,7 +16361,8 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[38.36 54.8  32.88 21.92]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311
+ 8.2756874 7.1378437 6.        6.        6.        6.       ]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16371,7 +16370,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>towerse.member.sigma_ult</t>
+          <t>towerse.tower_section_height</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -16381,12 +16380,12 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
+          <t>[38.36 54.8  32.88 21.92]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16394,7 +16393,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_exp</t>
+          <t>towerse.member.sigma_ult</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -16402,10 +16401,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3.]</t>
+          <t>[4.5e+08 4.5e+08 4.5e+08 4.5e+08]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16413,7 +16416,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>towerse.member.wohler_A</t>
+          <t>towerse.member.wohler_exp</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -16424,7 +16427,7 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
+          <t>[3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16432,7 +16435,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_density</t>
+          <t>towerse.member.wohler_A</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -16440,14 +16443,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[3.55346484e+10 3.55346484e+10 3.55346484e+10 3.55346484e+10]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16455,7 +16454,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>towerse.member.ballast_unit_cost</t>
+          <t>towerse.member.ballast_density</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -16465,7 +16464,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -16478,7 +16477,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>towerse.z_param</t>
+          <t>towerse.member.ballast_unit_cost</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -16488,12 +16487,12 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16501,7 +16500,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>towerse.member.sec_loc</t>
+          <t>towerse.z_param</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -16509,22 +16508,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr"/>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.         0.39534884 0.76744186 1.        ]</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>normalized sectional location</t>
-        </is>
-      </c>
+          <t>[ 15.    53.36 108.16 141.04 162.96]</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>towerse.member.str_tw</t>
+          <t>towerse.member.sec_loc</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -16532,26 +16531,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>deg</t>
-        </is>
-      </c>
+      <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>structural twist of section</t>
+          <t>normalized sectional location</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>towerse.member.tw_iner</t>
+          <t>towerse.member.str_tw</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -16571,14 +16566,14 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>inertial twist of section</t>
+          <t>structural twist of section</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>towerse.member.mass_den</t>
+          <t>towerse.member.tw_iner</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -16588,24 +16583,24 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>kg/m</t>
+          <t>deg</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>[9905.50199213 5578.77386332 4572.06581752 3916.57251035]</t>
+          <t>[0. 0. 0. 0.]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>sectional mass per unit length</t>
+          <t>inertial twist of section</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_iner</t>
+          <t>towerse.member.mass_den</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -16615,24 +16610,24 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>kg*m</t>
+          <t>kg/m</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[78308.4708231  44333.44190207 27804.58963809 17478.31679189]</t>
+          <t>[6585.37003214 4925.91741248 4030.89869699 3135.87998151]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional mass per unit length</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_iner</t>
+          <t>towerse.member.foreaft_iner</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -16647,19 +16642,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[78308.4708231  44333.44190207 27804.58963809 17478.31679189]</t>
+          <t>[72531.46807858 54332.14648517 29771.59530803 14017.69710534]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
+          <t>sectional fore-aft intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>towerse.member.foreaft_stff</t>
+          <t>towerse.member.sideside_iner</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -16669,24 +16664,24 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>N*m**2</t>
+          <t>kg*m</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[1.87655094e+12 1.06238778e+12 6.66297379e+11 4.18842962e+11]</t>
+          <t>[72531.46807858 54332.14648517 29771.59530803 14017.69710534]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional side-side intertia per unit length about the Y_G inertia axis</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>towerse.member.sideside_stff</t>
+          <t>towerse.member.foreaft_stff</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -16701,19 +16696,19 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[1.87655094e+12 1.06238778e+12 6.66297379e+11 4.18842962e+11]</t>
+          <t>[1.73811330e+12 1.30199249e+12 7.13433868e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
+          <t>sectional fore-aft bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>towerse.member.tor_stff</t>
+          <t>towerse.member.sideside_stff</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -16728,19 +16723,19 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[1.48810490e+12 8.42473507e+11 5.28373822e+11 3.32142469e+11]</t>
+          <t>[1.73811330e+12 1.30199249e+12 7.13433868e+11 3.35914141e+11]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>sectional torsional stiffness</t>
+          <t>sectional side-side bending stiffness per unit length about the Y_E elastic axis</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>towerse.member.axial_stff</t>
+          <t>towerse.member.tor_stff</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -16750,24 +16745,24 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>N*m**2</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[2.37371244e+11 1.33687368e+11 1.09563044e+11 9.38550805e+10]</t>
+          <t>[1.37832385e+12 1.03248004e+12 5.65753057e+11 2.66379914e+11]</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>sectional axial stiffness</t>
+          <t>sectional torsional stiffness</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>towerse.member.cg_offst</t>
+          <t>towerse.member.axial_stff</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -16777,24 +16772,24 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[0. 0. 0. 0.]</t>
+          <t>[1.57809011e+11 1.18042593e+11 9.65947447e+10 7.51468963e+10]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>offset from the sectional center of mass</t>
+          <t>sectional axial stiffness</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>towerse.member.sc_offst</t>
+          <t>towerse.member.cg_offst</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -16814,14 +16809,14 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>offset from the sectional shear center</t>
+          <t>offset from the sectional center of mass</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>towerse.member.tc_offst</t>
+          <t>towerse.member.sc_offst</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -16841,14 +16836,14 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>offset from the sectional tension center</t>
+          <t>offset from the sectional shear center</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>towerse.member.axial_load2stress</t>
+          <t>towerse.member.tc_offst</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -16858,23 +16853,24 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>m**2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.84256204 0.42631403 0.42631403 0.        ]
- [0.         0.         1.49602766 0.75302071 0.75302071 0.        ]
- [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
- [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr"/>
+          <t>[0. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>offset from the sectional tension center</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>towerse.member.shear_load2stress</t>
+          <t>towerse.member.axial_load2stress</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -16889,10 +16885,10 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[1.38394116 1.38394116 0.         0.         0.         0.21315702]
- [2.46019829 2.46019829 0.         0.         0.         0.37651036]
- [3.00158224 3.00158224 0.         0.         0.         0.52529097]
- [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
+          <t>[[0.         0.         1.26735475 0.54159479 0.54159479 0.        ]
+ [0.         0.         1.69430368 0.72300963 0.72300963 0.        ]
+ [0.         0.         2.07050602 1.08023545 1.08023545 0.        ]
+ [0.         0.         2.6614539  1.78617071 1.78617071 0.        ]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16900,7 +16896,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>towerse.member.labor_hours</t>
+          <t>towerse.member.shear_load2stress</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -16910,12 +16906,15 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m**2</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[544.29284967]</t>
+          <t>[[2.08461054 2.08461054 0.         0.         0.         0.2707974 ]
+ [2.78777214 2.78777214 0.         0.         0.         0.36150482]
+ [3.40605229 3.40605229 0.         0.         0.         0.54011772]
+ [4.37673138 4.37673138 0.         0.         0.         0.89308536]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16923,7 +16922,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>towerse.tower_cost</t>
+          <t>towerse.member.labor_hours</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -16933,12 +16932,12 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>h</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[2520343.44105258]</t>
+          <t>[493.78884989]</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
@@ -16946,7 +16945,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>towerse.member.section_D</t>
+          <t>towerse.tower_cost</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -16956,13 +16955,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[8.         8.         8.         8.         8.         8.
- 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
+          <t>[2151196.64636414]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -16970,7 +16968,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>towerse.member.section_t</t>
+          <t>towerse.member.section_D</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -16985,8 +16983,8 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.050831   0.050831   0.050831   0.02855324 0.02855324 0.02855324
- 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
+          <t>[9.4135311  9.4135311  9.4135311  9.4135311  9.4135311  9.4135311
+ 8.84460925 7.70676555 6.56892185 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -16994,54 +16992,55 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
+          <t>towerse.member.section_t</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[0.02862987 0.02862987 0.02862987 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
           <t>towerse.member.section_sigma_y</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>[3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08 3.45e+08
  3.45e+08 3.45e+08 3.45e+08 3.45e+08]</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>towerse.height_constraint</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>[0.]</t>
-        </is>
-      </c>
       <c r="E647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>towerse.transition_piece_height</t>
+          <t>towerse.height_constraint</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -17056,7 +17055,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>[15.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E648" t="inlineStr"/>
@@ -17064,7 +17063,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>towerse.z_start</t>
+          <t>towerse.transition_piece_height</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -17087,7 +17086,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>airfoils.ac</t>
+          <t>towerse.z_start</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -17095,22 +17094,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>1D array of the aerodynamic centers of each airfoil.</t>
-        </is>
-      </c>
+          <t>[15.]</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>airfoils.r_thick</t>
+          <t>airfoils.ac</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -17121,32 +17120,55 @@
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+          <t>[0.275 0.5   0.275 0.275 0.275 0.275 0.275]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>1D array of the relative thicknesses of each airfoil.</t>
+          <t>1D array of the aerodynamic centers of each airfoil.</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
+          <t>airfoils.r_thick</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>[0.4  1.   0.3  0.21 0.25 0.35 0.17]</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>1D array of the relative thicknesses of each airfoil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
           <t>airfoils.aoa</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
         <is>
           <t>rad</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr">
+      <c r="D653" t="inlineStr">
         <is>
           <t>[-3.14159265 -3.08923278 -3.0368729  -2.98451302 -2.93215314 -2.87979327
  -2.82743339 -2.77507351 -2.72271363 -2.67035376 -2.61799388 -2.565634
@@ -17184,39 +17206,16 @@
   3.08923278  3.14159265]</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E653" t="inlineStr">
         <is>
           <t>1D array of the angles of attack used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>airfoils.Re</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>[1000000.]</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>airfoils.cl</t>
+          <t>airfoils.Re</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -17226,6 +17225,29 @@
       </c>
       <c r="C654" t="inlineStr"/>
       <c r="D654" t="inlineStr">
+        <is>
+          <t>[1000000.]</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>1D array of the Reynolds numbers used to define the polars of the airfoils. All airfoils defined in openmdao share this grid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>airfoils.cl</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
         <is>
           <t>[[[[ 1.27742998e-02]]
   [[ 1.42693272e-01]]
@@ -17272,25 +17294,25 @@
   [[ 1.53642952e-08]]]]</t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>4D array with the lift coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+    <row r="656">
+      <c r="A656" t="inlineStr">
         <is>
           <t>airfoils.cd</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
         <is>
           <t>[[[[0.06162547]]
   [[0.06296798]]
@@ -17337,25 +17359,25 @@
   [[0.0198    ]]]]</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="E656" t="inlineStr">
         <is>
           <t>4D array with the drag coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+    <row r="657">
+      <c r="A657" t="inlineStr">
         <is>
           <t>airfoils.cm</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
         <is>
           <t>[[[[ 3.70854259e-04]]
   [[ 5.78906867e-02]]
@@ -17402,25 +17424,25 @@
   [[ 7.70271560e-09]]]]</t>
         </is>
       </c>
-      <c r="E656" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>4D array with the moment coefficients of the airfoils. Dimension 0 is along the different airfoils defined in the yaml, dimension 1 is along the angles of attack, dimension 2 is along the Reynolds number, dimension 3 is along the number of tabs, which may describe multiple sets at the same station, for example in presence of a flap.</t>
         </is>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+    <row r="658">
+      <c r="A658" t="inlineStr">
         <is>
           <t>airfoils.coord_xy</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
         <is>
           <t>[[[ 1.00000000e+00 -3.47000010e-03]
   [ 9.82059782e-01  4.47998271e-04]
@@ -17467,43 +17489,16 @@
   [ 1.00000000e+00  1.56966672e-03]]]</t>
         </is>
       </c>
-      <c r="E657" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>3D array of the x and y airfoil coordinates of the n_af airfoils.</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>airfoils.name</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>configuration.rated_power</t>
+          <t>airfoils.name</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -17513,24 +17508,24 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Unavailable</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[15000000.]</t>
+          <t>['DU40_A17', 'Cylinder', 'DU30_A17', 'DU21_A17', 'DU25_A17', 'DU35_A17', 'DU17_A17']</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>Electrical rated power of the generator.</t>
+          <t>1D array of names of airfoils.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>configuration.lifetime</t>
+          <t>configuration.rated_power</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -17540,24 +17535,24 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[15000000.]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>Turbine design lifetime.</t>
+          <t>Electrical rated power of the generator.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>configuration.rotor_diameter_user</t>
+          <t>configuration.lifetime</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -17567,24 +17562,24 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>year</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[250.]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
+          <t>Turbine design lifetime.</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>configuration.hub_height_user</t>
+          <t>configuration.rotor_diameter_user</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -17599,19 +17594,19 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[162.96]</t>
+          <t>[250.]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
+          <t>Diameter of the rotor specified by the user. It is defined as two times the blade length plus the hub diameter.</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>configuration.ws_class</t>
+          <t>configuration.hub_height_user</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17621,24 +17616,24 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>[162.96]</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
+          <t>Height of the hub center over the ground (land-based) or the mean sea level (offshore) specified by the user.</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>configuration.turb_class</t>
+          <t>configuration.ws_class</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17653,19 +17648,19 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
+          <t>IEC wind turbine class. I - offshore, II coastal, III - land-based, IV - low wind speed site.</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>configuration.gearbox_type</t>
+          <t>configuration.turb_class</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17680,19 +17675,19 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
+          <t>IEC wind turbine category. A - high turbulence intensity (land-based), B - mid turbulence, C - low turbulence (offshore).</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>configuration.rotor_orientation</t>
+          <t>configuration.gearbox_type</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17707,19 +17702,19 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>upwind</t>
+          <t>direct_drive</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>Rotor orientation, either upwind or downwind.</t>
+          <t>Gearbox configuration (geared, direct-drive, etc.).</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>configuration.upwind</t>
+          <t>configuration.rotor_orientation</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17732,19 +17727,21 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D667" t="b">
-        <v>1</v>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>upwind</t>
+        </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>Convenient boolean for upwind (True) or downwind (False).</t>
+          <t>Rotor orientation, either upwind or downwind.</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>configuration.n_blades</t>
+          <t>configuration.upwind</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17757,19 +17754,19 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="D668" t="n">
-        <v>3</v>
+      <c r="D668" t="b">
+        <v>1</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>Number of blades of the rotor.</t>
+          <t>Convenient boolean for upwind (True) or downwind (False).</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>control.V_in</t>
+          <t>configuration.n_blades</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17779,24 +17776,22 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>m/s</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>[3.]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>3</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
+          <t>Number of blades of the rotor.</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>control.V_out</t>
+          <t>control.V_in</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17811,19 +17806,19 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>[25.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
+          <t>Cut in wind speed. This is the wind speed where region II begins.</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>control.minOmega</t>
+          <t>control.V_out</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17833,24 +17828,24 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[0.52359878]</t>
+          <t>[25.]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>Minimum allowed rotor speed.</t>
+          <t>Cut out wind speed. This is the wind speed where region III ends.</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>control.maxOmega</t>
+          <t>control.minOmega</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17865,19 +17860,19 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>[0.79168135]</t>
+          <t>[0.52359878]</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>Maximum allowed rotor speed.</t>
+          <t>Minimum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>control.max_TS</t>
+          <t>control.maxOmega</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17887,24 +17882,24 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[0.79168135]</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>Maximum allowed blade tip speed.</t>
+          <t>Maximum allowed rotor speed.</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>control.max_pitch_rate</t>
+          <t>control.max_TS</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17914,24 +17909,24 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>rad/s</t>
+          <t>m/s</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[0.03490659]</t>
+          <t>[95.]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>Maximum allowed blade pitch rate</t>
+          <t>Maximum allowed blade tip speed.</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>control.max_torque_rate</t>
+          <t>control.max_pitch_rate</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17941,24 +17936,24 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>N*m/s</t>
+          <t>rad/s</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[1500000.]</t>
+          <t>[0.03490659]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>Maximum allowed generator torque rate</t>
+          <t>Maximum allowed blade pitch rate</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>control.rated_TSR</t>
+          <t>control.max_torque_rate</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17966,22 +17961,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>N*m/s</t>
+        </is>
+      </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[9.]</t>
+          <t>[1500000.]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>Constant tip speed ratio in region II.</t>
+          <t>Maximum allowed generator torque rate</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>control.rated_pitch</t>
+          <t>control.rated_TSR</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17989,26 +17988,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>rad</t>
-        </is>
-      </c>
+      <c r="C677" t="inlineStr"/>
       <c r="D677" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[9.]</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>Constant pitch angle in region II.</t>
+          <t>Constant tip speed ratio in region II.</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>costs.offset_tcc_per_kW</t>
+          <t>control.rated_pitch</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -18018,7 +18013,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>rad</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -18028,14 +18023,14 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>Offset to turbine capital cost</t>
+          <t>Constant pitch angle in region II.</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>costs.bos_per_kW</t>
+          <t>costs.offset_tcc_per_kW</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -18050,19 +18045,19 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>[4053.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>Balance of station/plant capital cost</t>
+          <t>Offset to turbine capital cost</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>costs.opex_per_kW</t>
+          <t>costs.bos_per_kW</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18072,24 +18067,24 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[137.]</t>
+          <t>[4053.]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>Average annual operational expenditures of the turbine</t>
+          <t>Balance of station/plant capital cost</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>costs.wake_loss_factor</t>
+          <t>costs.opex_per_kW</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -18097,22 +18092,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>[0.15]</t>
+          <t>[137.]</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>The losses in AEP due to waked conditions</t>
+          <t>Average annual operational expenditures of the turbine</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>costs.fixed_charge_rate</t>
+          <t>costs.wake_loss_factor</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -18123,19 +18122,19 @@
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[0.056]</t>
+          <t>[0.15]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>Fixed charge rate for coe calculation</t>
+          <t>The losses in AEP due to waked conditions</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>costs.labor_rate</t>
+          <t>costs.fixed_charge_rate</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -18143,22 +18142,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>USD/h</t>
-        </is>
-      </c>
+      <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>[58.8]</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
+          <t>[0.056]</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Fixed charge rate for coe calculation</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>costs.painting_rate</t>
+          <t>costs.labor_rate</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -18168,12 +18167,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>USD/m**2</t>
+          <t>USD/h</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[58.8]</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -18181,7 +18180,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>costs.blade_mass_cost_coeff</t>
+          <t>costs.painting_rate</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -18191,12 +18190,12 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/m**2</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>[14.6]</t>
+          <t>[30.]</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
@@ -18204,7 +18203,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>costs.hub_mass_cost_coeff</t>
+          <t>costs.blade_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -18219,7 +18218,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>[3.9]</t>
+          <t>[14.6]</t>
         </is>
       </c>
       <c r="E686" t="inlineStr"/>
@@ -18227,7 +18226,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>costs.pitch_system_mass_cost_coeff</t>
+          <t>costs.hub_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -18242,7 +18241,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>[22.1]</t>
+          <t>[3.9]</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
@@ -18250,7 +18249,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>costs.spinner_mass_cost_coeff</t>
+          <t>costs.pitch_system_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -18265,7 +18264,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>[11.1]</t>
+          <t>[22.1]</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
@@ -18273,7 +18272,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>costs.lss_mass_cost_coeff</t>
+          <t>costs.spinner_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -18288,7 +18287,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[11.9]</t>
+          <t>[11.1]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18296,7 +18295,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>costs.bearing_mass_cost_coeff</t>
+          <t>costs.lss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -18311,7 +18310,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[4.5]</t>
+          <t>[11.9]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18319,7 +18318,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>costs.gearbox_torque_cost</t>
+          <t>costs.bearing_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -18329,12 +18328,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>USD/kN/m</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[50.]</t>
+          <t>[4.5]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18342,7 +18341,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>costs.hss_mass_cost_coeff</t>
+          <t>costs.gearbox_torque_cost</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -18352,12 +18351,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kN/m</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[6.8]</t>
+          <t>[50.]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -18365,7 +18364,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>costs.generator_mass_cost_coeff</t>
+          <t>costs.hss_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -18380,7 +18379,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>[12.4]</t>
+          <t>[6.8]</t>
         </is>
       </c>
       <c r="E693" t="inlineStr"/>
@@ -18388,7 +18387,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>costs.bedplate_mass_cost_coeff</t>
+          <t>costs.generator_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -18403,7 +18402,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[12.4]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -18411,7 +18410,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>costs.yaw_mass_cost_coeff</t>
+          <t>costs.bedplate_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -18426,7 +18425,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[8.3]</t>
+          <t>[2.9]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -18434,7 +18433,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>costs.converter_mass_cost_coeff</t>
+          <t>costs.yaw_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -18449,7 +18448,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>[18.8]</t>
+          <t>[8.3]</t>
         </is>
       </c>
       <c r="E696" t="inlineStr"/>
@@ -18457,7 +18456,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>costs.transformer_mass_cost_coeff</t>
+          <t>costs.converter_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -18480,7 +18479,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>costs.hvac_mass_cost_coeff</t>
+          <t>costs.transformer_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -18495,7 +18494,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[124.]</t>
+          <t>[18.8]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18503,7 +18502,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>costs.cover_mass_cost_coeff</t>
+          <t>costs.hvac_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -18518,7 +18517,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>[5.7]</t>
+          <t>[124.]</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
@@ -18526,7 +18525,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>costs.elec_connec_machine_rating_cost_coeff</t>
+          <t>costs.cover_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -18536,12 +18535,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>[41.85]</t>
+          <t>[5.7]</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
@@ -18549,7 +18548,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>costs.platforms_mass_cost_coeff</t>
+          <t>costs.elec_connec_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -18559,12 +18558,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>USD/kg</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>[17.1]</t>
+          <t>[41.85]</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
@@ -18572,7 +18571,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>costs.tower_mass_cost_coeff</t>
+          <t>costs.platforms_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -18587,7 +18586,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>[2.72649418]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
@@ -18595,7 +18594,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>costs.controls_machine_rating_cost_coeff</t>
+          <t>costs.tower_mass_cost_coeff</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18605,12 +18604,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>USD/kW</t>
+          <t>USD/kg</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[21.15]</t>
+          <t>[2.73378262]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18618,7 +18617,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>costs.crane_cost</t>
+          <t>costs.controls_machine_rating_cost_coeff</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18628,12 +18627,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>USD/kW</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[12000.]</t>
+          <t>[21.15]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18641,7 +18640,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>costs.electricity_price</t>
+          <t>costs.crane_cost</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18651,12 +18650,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>USD/kW/h</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[0.04]</t>
+          <t>[12000.]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18664,7 +18663,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>costs.reserve_margin_price</t>
+          <t>costs.electricity_price</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18674,12 +18673,12 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>USD/kW/year</t>
+          <t>USD/kW/h</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[120.]</t>
+          <t>[0.04]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18687,7 +18686,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>costs.capacity_credit</t>
+          <t>costs.reserve_margin_price</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18695,10 +18694,14 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>USD/kW/year</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18706,7 +18709,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>costs.benchmark_price</t>
+          <t>costs.capacity_credit</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18714,14 +18717,10 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>USD/kW/h</t>
-        </is>
-      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[0.071]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18729,7 +18728,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>costs.turbine_number</t>
+          <t>costs.benchmark_price</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18739,22 +18738,20 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D709" t="n">
-        <v>40</v>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>Number of turbines at plant</t>
-        </is>
-      </c>
+          <t>USD/kW/h</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>[0.071]</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>env.rho_air</t>
+          <t>costs.turbine_number</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18764,24 +18761,22 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>[1.225]</t>
-        </is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>40</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Density of air</t>
+          <t>Number of turbines at plant</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>env.mu_air</t>
+          <t>env.rho_air</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18791,24 +18786,24 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>[1.81e-05]</t>
+          <t>[1.225]</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of air</t>
+          <t>Density of air</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>env.shear_exp</t>
+          <t>env.mu_air</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18816,22 +18811,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>kg/m/s</t>
+        </is>
+      </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[0.12]</t>
+          <t>[1.81e-05]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>Shear exponent of the wind.</t>
+          <t>Dynamic viscosity of air</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>env.speed_sound_air</t>
+          <t>env.shear_exp</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18839,26 +18838,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>m/s</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[340.]</t>
+          <t>[0.12]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>Speed of sound in air.</t>
+          <t>Shear exponent of the wind.</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>env.weibull_k</t>
+          <t>env.speed_sound_air</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18866,22 +18861,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[2.]</t>
+          <t>[340.]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>Shape parameter of the Weibull probability density function of the wind.</t>
+          <t>Speed of sound in air.</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>env.rho_water</t>
+          <t>env.weibull_k</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18889,26 +18888,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>kg/m**3</t>
-        </is>
-      </c>
+      <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>[1025.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>Density of ocean water</t>
+          <t>Shape parameter of the Weibull probability density function of the wind.</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>env.mu_water</t>
+          <t>env.rho_water</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18918,24 +18913,24 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>kg/m/s</t>
+          <t>kg/m**3</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.0013351]</t>
+          <t>[1025.]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t>Dynamic viscosity of ocean water</t>
+          <t>Density of ocean water</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>env.water_depth</t>
+          <t>env.mu_water</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18945,24 +18940,24 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg/m/s</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>[60.]</t>
+          <t>[0.0013351]</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
+          <t>Dynamic viscosity of ocean water</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>env.Hsig_wave</t>
+          <t>env.water_depth</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18977,19 +18972,19 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>[4.52]</t>
+          <t>[60.]</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>Significant wave height</t>
+          <t>Water depth for analysis.  Values &gt; 0 mean offshore</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>env.Tsig_wave</t>
+          <t>env.Hsig_wave</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18999,24 +18994,24 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>[9.45]</t>
+          <t>[4.52]</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t>Significant wave period</t>
+          <t>Significant wave height</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>env.G_soil</t>
+          <t>env.Tsig_wave</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -19026,24 +19021,24 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>N/m**2</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>[1.4e+08]</t>
+          <t>[9.45]</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>Shear stress of soil</t>
+          <t>Significant wave period</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>env.nu_soil</t>
+          <t>env.G_soil</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -19051,35 +19046,62 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>N/m**2</t>
+        </is>
+      </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[0.4]</t>
+          <t>[1.4e+08]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>Poisson ratio of soil</t>
+          <t>Shear stress of soil</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
+          <t>env.nu_soil</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>[0.4]</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Poisson ratio of soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
           <t>high_level_tower_props.tower_ref_axis</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr">
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D722" t="inlineStr">
+      <c r="D723" t="inlineStr">
         <is>
           <t>[[  0.     0.    15.  ]
  [  0.     0.    53.36]
@@ -19088,132 +19110,132 @@
  [  0.     0.   162.96]]</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>high_level_tower_props.hub_height</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D723" t="inlineStr">
-        <is>
-          <t>[162.96]</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
+          <t>high_level_tower_props.hub_height</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>[162.96]</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Height of the hub in the global reference system, i.e. distance rotor center to ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
           <t>materials.ply_t</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr">
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D724" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.005      0.00515873
  0.001      0.001      0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>1D array of the ply thicknesses of the materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>materials.fvf</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.57       0.10769231
  0.57       0.57       0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber volume fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>materials.fwf</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
         <is>
           <t>[0.         0.         0.         0.         0.74506827 0.15889029
  0.74506827 0.74506827 0.         0.         0.        ]</t>
         </is>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="E727" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional fiber weight- fraction of the composite materials. Non-composite materials are kept at 0.</t>
         </is>
       </c>
     </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>materials.E</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr">
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D727" t="inlineStr">
+      <c r="D728" t="inlineStr">
         <is>
           <t>[[3.440e+09 3.440e+09 3.440e+09]
  [2.000e+11 2.000e+11 2.000e+11]
@@ -19228,29 +19250,29 @@
  [4.560e+06 4.560e+06 4.560e+06]]</t>
         </is>
       </c>
-      <c r="E727" t="inlineStr">
+      <c r="E728" t="inlineStr">
         <is>
           <t>2D array of the Youngs moduli of the materials. Each row represents a material, the three columns represent E11, E22 and E33.</t>
         </is>
       </c>
     </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>materials.G</t>
         </is>
       </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D728" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>[[1.32300000e+09 1.32300000e+09 1.32300000e+09]
  [7.93000000e+10 7.93000000e+10 7.93000000e+10]
@@ -19265,25 +19287,25 @@
  [1.52000000e+06 1.52000000e+06 1.52000000e+06]]</t>
         </is>
       </c>
-      <c r="E728" t="inlineStr">
+      <c r="E729" t="inlineStr">
         <is>
           <t>2D array of the shear moduli of the materials. Each row represents a material, the three columns represent G12, G13 and G23.</t>
         </is>
       </c>
     </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
+    <row r="730">
+      <c r="A730" t="inlineStr">
         <is>
           <t>materials.nu</t>
         </is>
       </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
         <is>
           <t>[[0.3   0.3   0.3  ]
  [0.3   0.3   0.3  ]
@@ -19298,29 +19320,29 @@
  [0.49  0.49  0.49 ]]</t>
         </is>
       </c>
-      <c r="E729" t="inlineStr">
+      <c r="E730" t="inlineStr">
         <is>
           <t>2D array of the Poisson ratio of the materials. Each row represents a material, the three columns represent nu12, nu13 and nu23.</t>
         </is>
       </c>
     </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
+    <row r="731">
+      <c r="A731" t="inlineStr">
         <is>
           <t>materials.Xt</t>
         </is>
       </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr">
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D730" t="inlineStr">
+      <c r="D731" t="inlineStr">
         <is>
           <t>[[7.400e+01 7.400e+01 7.400e+01]
  [4.500e+08 4.500e+08 4.500e+08]
@@ -19335,29 +19357,29 @@
  [6.900e+05 6.900e+05 6.900e+05]]</t>
         </is>
       </c>
-      <c r="E730" t="inlineStr">
+      <c r="E731" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Tensile Strength (UTS) of the materials. Each row represents a material, the three columns represent Xt12, Xt13 and Xt23.</t>
         </is>
       </c>
     </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
+    <row r="732">
+      <c r="A732" t="inlineStr">
         <is>
           <t>materials.Xc</t>
         </is>
       </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr">
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D731" t="inlineStr">
+      <c r="D732" t="inlineStr">
         <is>
           <t>[[8.7000e+01 8.7000e+01 8.7000e+01]
  [4.5000e+08 4.5000e+08 4.5000e+08]
@@ -19372,29 +19394,29 @@
  [4.0000e+05 4.0000e+05 4.0000e+05]]</t>
         </is>
       </c>
-      <c r="E731" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Compressive Strength (UCS) of the materials. Each row represents a material, the three columns represent Xc12, Xc13 and Xc23.</t>
         </is>
       </c>
     </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
+    <row r="733">
+      <c r="A733" t="inlineStr">
         <is>
           <t>materials.S</t>
         </is>
       </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D732" t="inlineStr">
+      <c r="D733" t="inlineStr">
         <is>
           <t>[[2.126e+07 2.126e+07 2.126e+07]
  [0.000e+00 0.000e+00 0.000e+00]
@@ -19409,67 +19431,44 @@
  [3.100e+05 3.100e+05 3.100e+05]]</t>
         </is>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="E733" t="inlineStr">
         <is>
           <t>2D array of the Ultimate Shear Strength (USS) of the materials. Each row represents a material, the three columns represent S12, S13 and S23.</t>
         </is>
       </c>
     </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
+    <row r="734">
+      <c r="A734" t="inlineStr">
         <is>
           <t>materials.sigma_y</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="D733" t="inlineStr">
+      <c r="D734" t="inlineStr">
         <is>
           <t>[0.00e+00 3.45e+08 4.85e+08 2.65e+08 0.00e+00 0.00e+00 0.00e+00 0.00e+00
  0.00e+00 0.00e+00 0.00e+00]</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
+      <c r="E734" t="inlineStr">
         <is>
           <t>Yield stress of the material (in the principle direction for composites).</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>materials.wohler_exp</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr">
-        <is>
-          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>materials.wohler_intercept</t>
+          <t>materials.wohler_exp</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -19479,49 +19478,45 @@
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
+        <is>
+          <t>[ 1.   3.   3.   3.  10.  16.1 10.  10.   1.   1.   1. ]</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Exponent of S-N Wohler fatigue curve in the form of S = A*N^-(1/m).</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>materials.wohler_intercept</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
         <is>
           <t>[8.70000000e+01 3.55346484e+10 3.55346484e+10 3.55346484e+10
  6.09200000e+08 1.54600000e+09 1.13200000e+08 4.48900000e+08
  2.08300000e+06 0.00000000e+00 6.90000000e+05]</t>
         </is>
       </c>
-      <c r="E735" t="inlineStr">
+      <c r="E736" t="inlineStr">
         <is>
           <t>Stress-intercept (A) of S-N Wohler fatigue curve in the form of S = A*N^-(1/m), taken as ultimate stress unless otherwise specified.</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>materials.unit_cost</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>USD/kg</t>
-        </is>
-      </c>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>materials.waste</t>
+          <t>materials.unit_cost</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -19529,128 +19524,128 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>USD/kg</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+          <t>[ 7.23  0.7   0.9   0.5   1.87 30.    3.    2.86 13.    3.63  9.  ]</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+          <t>1D array of the unit costs of the materials.</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
+          <t>materials.waste</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>[0.25 0.   0.   0.   0.05 0.05 0.15 0.15 0.2  0.   0.  ]</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>1D array of the non-dimensional waste fraction of the materials.</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
           <t>materials.roll_mass</t>
         </is>
       </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr">
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-      <c r="D738" t="inlineStr">
+      <c r="D739" t="inlineStr">
         <is>
           <t>[  0.       0.       0.       0.       0.       0.     181.4368 181.4368
    0.       0.       0.    ]</t>
         </is>
       </c>
-      <c r="E738" t="inlineStr">
+      <c r="E739" t="inlineStr">
         <is>
           <t>1D array of the roll mass of the composite fabrics. Non-composite materials are kept at 0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>materials.orth</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
+          <t>materials.orth</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>[0. 0. 0. 0. 1. 1. 1. 1. 0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>1D array of flags to set whether a material is isotropic (0) or orthtropic (1). Each entry represents a material.</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
           <t>monopile.s</t>
         </is>
       </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr">
         <is>
           <t>[0.         0.375      0.58333333 0.79166667 0.875      0.95833333
  1.        ]</t>
         </is>
       </c>
-      <c r="E740" t="inlineStr">
+      <c r="E741" t="inlineStr">
         <is>
           <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>monopile.height</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D741" t="inlineStr">
-        <is>
-          <t>[120.]</t>
-        </is>
-      </c>
-      <c r="E741" t="inlineStr">
-        <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>monopile.length</t>
+          <t>monopile.height</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -19670,14 +19665,14 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>monopile.foundation_height</t>
+          <t>monopile.length</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19692,19 +19687,19 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[-105.]</t>
+          <t>[120.]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>Foundation height in respect to the ground level.</t>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>monopile.diameter</t>
+          <t>monopile.foundation_height</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19719,20 +19714,19 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[10.04686893 10.04686893 10.04686893 10.04686893 10.04686893  9.64968714
-  9.45357936]</t>
+          <t>[-105.]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
+          <t>Foundation height in respect to the ground level.</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>monopile.layer_thickness</t>
+          <t>monopile.diameter</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19747,19 +19741,19 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
+          <t>[9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311 9.4135311]</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>monopile.outfitting_factor</t>
+          <t>monopile.layer_thickness</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19767,22 +19761,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr"/>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.075 0.075 0.075 0.075 0.075 0.075 0.075]]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_mass</t>
+          <t>monopile.outfitting_factor</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19790,26 +19788,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>[100000.]</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>point mass of transition piece</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>monopile.transition_piece_cost</t>
+          <t>monopile.transition_piece_mass</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19819,24 +19813,24 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[500000.]</t>
+          <t>[100000.]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>cost of transition piece</t>
+          <t>point mass of transition piece</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>monopile.gravity_foundation_mass</t>
+          <t>monopile.transition_piece_cost</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19846,24 +19840,24 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>[0.]</t>
+          <t>[500000.]</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>extra mass of gravity foundation</t>
+          <t>cost of transition piece</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>monopile.layer_name</t>
+          <t>monopile.gravity_foundation_mass</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19873,24 +19867,24 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Unavailable</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>['monopile_wall']</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>extra mass of gravity foundation</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>monopile.layer_mat</t>
+          <t>monopile.layer_name</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19905,32 +19899,59 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['monopile_wall']</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
+          <t>monopile.layer_mat</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>['steel']</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
           <t>tower.ref_axis</t>
         </is>
       </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D752" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>[[  0.   0.  15.]
  [  0.   0.  50.]
@@ -19939,43 +19960,16 @@
  [  0.   0. 150.]]</t>
         </is>
       </c>
-      <c r="E752" t="inlineStr">
+      <c r="E753" t="inlineStr">
         <is>
           <t>2D array of the coordinates (x,y,z) of the tower reference axis. The coordinate system is the global coordinate system of OpenFAST: it is placed at tower base with x pointing downwind, y pointing on the side and z pointing vertically upwards. A standard tower configuration will have zero x and y values and positive z values.</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>tower.diameter</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>[8. 8. 8. 6. 6.]</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr">
-        <is>
-          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>tower.cd</t>
+          <t>tower.diameter</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19983,22 +19977,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr"/>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[0.5 0.5 0.5 0.5 0.5]</t>
+          <t>[9.4135311 9.4135311 9.4135311 6.        6.       ]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
         <is>
-          <t>1D array of the drag coefficients defined along the tower height.</t>
+          <t>1D array of the outer diameter values defined along the tower axis.</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>tower.layer_thickness</t>
+          <t>tower.cd</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -20006,26 +20004,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[[0.06664067 0.02837054 0.025      0.025      0.025     ]]</t>
+          <t>[0.5 0.5 0.5 0.5 0.5]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
+          <t>1D array of the drag coefficients defined along the tower height.</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>tower.outfitting_factor</t>
+          <t>tower.layer_thickness</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20033,22 +20027,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>[1.07]</t>
+          <t>[[0.03351377 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
+          <t>2D array of the thickness of the layers of the tower structure. The first dimension represents each layer, the second dimension represents each piecewise-constant entry of the tower sections.</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>tower.layer_name</t>
+          <t>tower.outfitting_factor</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -20056,26 +20054,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="inlineStr">
         <is>
-          <t>['tower_wall']</t>
+          <t>[1.07]</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>1D array of the names of the layers modeled in the tower structure.</t>
+          <t>Multiplier that accounts for secondary structure mass inside of tower</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>tower.layer_mat</t>
+          <t>tower.layer_name</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -20090,19 +20084,19 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>['steel']</t>
+          <t>['tower_wall']</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
         <is>
-          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
+          <t>1D array of the names of the layers modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>tower_grid.s</t>
+          <t>tower.layer_mat</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -20110,22 +20104,26 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
+          <t>['steel']</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
         <is>
-          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
+          <t>1D array of the names of the materials of each layer modeled in the tower structure.</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>tower_grid.height</t>
+          <t>tower_grid.s</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -20133,26 +20131,22 @@
           <t>output</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[147.96]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Scalar of the tower height computed along the z axis.</t>
+          <t>1D array of the non-dimensional grid defined along the tower axis (0-tower base, 1-tower top)</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>tower_grid.length</t>
+          <t>tower_grid.height</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -20172,32 +20166,59 @@
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+          <t>Scalar of the tower height computed along the z axis.</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
+          <t>tower_grid.length</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>[147.96]</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Scalar of the tower length computed along its curved axis. A standard straight tower will be as high as long.</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
           <t>tower_grid.foundation_height</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D762" t="inlineStr">
+      <c r="D763" t="inlineStr">
         <is>
           <t>[15.]</t>
         </is>
       </c>
-      <c r="E762" t="inlineStr">
+      <c r="E763" t="inlineStr">
         <is>
           <t>Foundation height in respect to the ground level.</t>
         </is>
